--- a/CALCULATIONS/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
+++ b/CALCULATIONS/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaidc\Documents\Github\12-DOF-Quadruped\CALCULATIONS\HOUSING COMBINED LOADING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF02DFA0-E8DC-4742-9394-D6B158CB1C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539338B9-A728-40EC-B661-C676905A1E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>3.13 THIN-WALLED HOLLOW SHAFTS IN TORSION</t>
   </si>
@@ -87,21 +87,6 @@
     <t>in^2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">BEAM DEFLECTION FOR HOUSING IN </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BENDING</t>
-    </r>
-  </si>
-  <si>
     <t>*SIMPLY SUPPORTED*</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
   </si>
   <si>
     <t>length, L</t>
-  </si>
-  <si>
-    <t>elastic modulus, E</t>
   </si>
   <si>
     <t>area moment, I</t>
@@ -183,9 +165,6 @@
     <t>lbf</t>
   </si>
   <si>
-    <t xml:space="preserve">3X static hold torque </t>
-  </si>
-  <si>
     <t>weight of current dog</t>
   </si>
   <si>
@@ -204,7 +183,58 @@
     <t>bending about verical axis</t>
   </si>
   <si>
-    <t>greater than 1.5</t>
+    <t>BEAM DEFLECTION FOR HOUSING IN BENDING</t>
+  </si>
+  <si>
+    <t>needs to be greater than 1.5</t>
+  </si>
+  <si>
+    <t>*DISTRIBUTED WEIGHT*</t>
+  </si>
+  <si>
+    <t>distributed load, w</t>
+  </si>
+  <si>
+    <t>lbf/in</t>
+  </si>
+  <si>
+    <t>50 lbf ditributed over 12 in</t>
+  </si>
+  <si>
+    <t>*CANTILEVER BEAM*</t>
+  </si>
+  <si>
+    <t>point load, P</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>force of two legs on one hip (6.31 lbf per leg static… 3X)</t>
+  </si>
+  <si>
+    <t>*DISTRIBUTED LOAD*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3X static hold torque (3.2 ft-lbs = 38.4 lb-in from MATLAB calc) + 3X Full load of one leg </t>
+  </si>
+  <si>
+    <t>Experimental Yield Stresses</t>
+  </si>
+  <si>
+    <t>CF yield stress</t>
+  </si>
+  <si>
+    <t>(psi)</t>
+  </si>
+  <si>
+    <t>Alum yield stress</t>
+  </si>
+  <si>
+    <t>Alum factor of safety, S</t>
+  </si>
+  <si>
+    <t>CF factor of safety, S</t>
   </si>
 </sst>
 </file>
@@ -261,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -269,11 +299,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -286,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,6 +386,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,16 +433,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29391</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>496380</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41761</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -345,8 +459,8 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="4122420" y="502920"/>
-            <a:ext cx="2469960" cy="1367640"/>
+            <a:off x="6715034" y="681446"/>
+            <a:ext cx="2462703" cy="1356029"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
@@ -384,15 +498,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385717</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561480</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>126052</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>165180</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -410,8 +524,8 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="3870960" y="2324100"/>
-            <a:ext cx="4005720" cy="1132920"/>
+            <a:off x="6463574" y="2488112"/>
+            <a:ext cx="3994835" cy="1124211"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
@@ -454,6 +568,128 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>604732</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>203942</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="Cantilever Beam Shear And Moment Diagrams">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD3C15C-21D0-D760-004F-810CEF1BB625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23159932" y="829688"/>
+          <a:ext cx="2647210" cy="2272945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>437786</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552086</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Shear And Moment Diagrams For Trusses">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFA27F1-B273-14EC-F9BB-275997ED30C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13239386" y="473919"/>
+          <a:ext cx="2552700" cy="3845620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -479,7 +715,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -505,13 +741,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314580</xdr:colOff>
+      <xdr:colOff>314870</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104681</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
               <a:extLst>
@@ -524,8 +760,8 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="4533900" y="3520440"/>
-            <a:ext cx="5534280" cy="4082040"/>
+            <a:off x="4519955" y="3546936"/>
+            <a:ext cx="5516640" cy="4113000"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
@@ -542,15 +778,15 @@
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4524900" y="3511440"/>
-              <a:ext cx="5551920" cy="4099680"/>
+              <a:off x="4511026" y="3537979"/>
+              <a:ext cx="5534141" cy="4130555"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -576,7 +812,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
               <a:extLst>
@@ -607,7 +843,7 @@
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -616,6 +852,526 @@
             <a:xfrm>
               <a:off x="4540140" y="1141620"/>
               <a:ext cx="2936880" cy="1265760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>452407</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77436</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B896DAB5-BFF4-F29F-E204-980F684B4FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13224933" y="1176866"/>
+            <a:ext cx="2467474" cy="2439637"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B896DAB5-BFF4-F29F-E204-980F684B4FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13215975" y="1167813"/>
+              <a:ext cx="2485032" cy="2457381"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112328</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD4A202-C19E-CCD5-2D64-F5F53B8407DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7002915" y="7620775"/>
+            <a:ext cx="82800" cy="56880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD4A202-C19E-CCD5-2D64-F5F53B8407DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6993915" y="7611775"/>
+              <a:ext cx="100440" cy="74520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>278150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540230</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1130</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AD5380-760E-B79A-4AE1-C96E8FCC7F09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6968715" y="7419895"/>
+            <a:ext cx="262080" cy="141840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AD5380-760E-B79A-4AE1-C96E8FCC7F09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6959715" y="7411255"/>
+              <a:ext cx="279720" cy="159480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>124213</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>359653</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166431</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6081F37E-CFF2-2E4A-FE52-C4A4166AC9F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11137060" y="3698780"/>
+            <a:ext cx="235440" cy="138600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6081F37E-CFF2-2E4A-FE52-C4A4166AC9F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11128060" y="3690140"/>
+              <a:ext cx="253080" cy="156240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110173</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>395653</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55244</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552D571F-8D11-78C5-5E47-6BB6B424E597}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11123020" y="3900380"/>
+            <a:ext cx="285480" cy="9360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552D571F-8D11-78C5-5E47-6BB6B424E597}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11114380" y="3891380"/>
+              <a:ext cx="303120" cy="27000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>136473</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>385593</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18334</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2DFB79-E7BE-7118-B8CD-F5898C2716F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11149320" y="4003405"/>
+            <a:ext cx="249120" cy="236520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2DFB79-E7BE-7118-B8CD-F5898C2716F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11140680" y="3994752"/>
+              <a:ext cx="266760" cy="254187"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18568</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>287488</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79429</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B69CDE-9BFD-D432-ECB8-9501B3BDF89C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11643240" y="3770125"/>
+            <a:ext cx="268920" cy="163800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B69CDE-9BFD-D432-ECB8-9501B3BDF89C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11634252" y="3761125"/>
+              <a:ext cx="286536" cy="181440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>231975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>539872</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36862</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A09B2EC-1016-834F-76AD-16B9A21EA280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="23396775" y="2180136"/>
+            <a:ext cx="2136697" cy="1263314"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A09B2EC-1016-834F-76AD-16B9A21EA280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23387812" y="2171421"/>
+              <a:ext cx="2154264" cy="1280395"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -761,6 +1517,50 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442784</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503806</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59DADC9-C997-7F1B-01FB-BA96D961E274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657865" y="4745872"/>
+          <a:ext cx="6743968" cy="2335513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -792,33 +1592,92 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5062 24081,'4005'0,"-4005"2165,-4005-2165,4005-2165</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4821 23842,'4526'0,"-4526"2681,-4526-2681,4526-2681</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4204 23630,'0'0,"0"14,0 1,0 2,-2 2,-4 3,4 1,2 0,-4-5,4 0,-4-6,4-4,0-2,0-8,4-13,0-2,-2-4,4-1,-4-9,2 5,-4-1,0-1,6 2,-6 4,0-1,2 2,-2 10,4 1,-4 3,4 5,-2 2,4 0,-2 2,4 15,-3-2,3 7,8 4,-6-2,6 6,-2-2,8 2,-8-4,2-3,-4-2,0-4,-6-4,0-4,-6-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4226 23770,'0'0,"57"-28,-35 24,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9647 23604,'0'0,"19"55,-11-38,0-2,-6 4,2-6,8 6,-4-8,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9647 23602,'0'0,"53"-12,-39 12,2 0,-4 0,0 0,-4 0,0 6,-8 0,0 0,0 2,-4 4,-6-4,4 0,-6-2,8 0,0-3,0-3,8 0,8 0,0 0,0 7,0-1,2 0,-4 5,4 2,-6 1,-6-1,4 0,-6 0,0-3,-8 1,0-4,-6-3,4 0,-4-4,-2 0,4 0,0 0,4 0,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4403 26807,'0'0,"-14"-29,10 23,-4 6,0-4,0 4,-4 0,2 0,0 5,-4 4,2 7,-2-5,2 8,4 1,2-1,-2 2,8 0,0-5,2 2,14-4,4-6,2-4,6-4,-2 0,0-4,6-7,-6 0,-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9463 26758,'0'0,"4"56,0-40,0 2,-2 1,4 0,2 0,-2-4,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9445 26758,'0'0,"68"-4,-50 12,0 3,-2 6,0-5,-4 8,-2-5,-2 8,-8-2,0-5,0 0,0 0,-8-4,-6-2,-4-4,6 0,-8-4,4-2,6 0,-2 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">3974 24390,'0'1681</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">3933 24460,'0'0,"-25"52,21-44,4-4,-4 0,4-2,4-10,6 0,-8-2,2-4,0 2,4-4,-7-2,3 0,0-1,0 0,-4 0,4 6,-2 0,2 5,-4 2,0 1,6 2,-5 3,3 3,-2 8,-2-1,8 3,-2 4,-2-2,2 4,2-4,-4 2,6-2,-2 0,4 2,0-1,-6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">3904 26033,'0'0,"41"66,-31-46,3-4,-7 0,2 0,-2-5,-2-2,0-7,-4 2,4-4,-4-13,0 5,0-5,0-2,4 6,-4-1,4 0,0 3,6 0,-4 1,8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">3250 25111,'0'0,"4"29,-2-12,6 3,-2 6,2-2,0 2,4-2,-2-7,-6 4,4-6,-2 0,-6-2,6-5,-6-2,4-2,-4-10,0 0,0-2,0-3,0 2,-4-1,4 1,0-6,0 4,0-3,0 5,0 0,0 3,0 2,4 0,0 4,0 0,2 0,0 6,2 2,2 1,-2 2,0 1,-1-1,7-2,-6 1,-2-3,2 1,-4 1,4-9,-4 4,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5361 23480,'3416'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8723 23399,'0'0,"12"14,0-8,0-4,-2 4,4 0,0 2,-5-1,1 2,-2 3,0-5,-8 4,4-1,-4-2,0-3,0 1,-4-2,2-4,-6 0,0 0,0 0,1 0,1 0,-4 0,4 5,4 1,-6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5371 23427,'0'0,"2"0,-2 2,0 6,0-4,-2 6,-8-2,2 2,4-1,-4 0,0 3,0-5,0-1,4 2,0-8,0 5,4-3,-4-2,8 0,0 0,4 0,-4 0,4 0,4 0,-4 0,0 2,8-2,-6 2,5 0,-3 1,6-1,-4 4,-4-4,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6656 23194,'0'0,"8"2,-5 8,-3 2,0 0,4 4,0-2,-2-3,8 4,-8-6,4-1,2-2,0-3,0-3,0 0,0-3,0-5,-8-3,8 1,-6 1,2 0,-4 1,0 2,0 4,2 6,4 0,4 4,-4-5,4 3,6 1,-3-5,5 4,2-6,-6 0,2 0,-4 0,-2-4,-2-5,-4 1,-4-1,0 1,0-3,-4 2,-4 1,-2 0,-2-2,-4 4,-2 2,2 0,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8565 24833,'427'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8918 24719,'0'0,"0"8,6-2,-4 2,6-2,0 2,4 2,-6-2,2 2,4-2,-4-2,-4 4,-2-5,6 2,-4-3,2 2,-6-2,2-2,-2 0,0 1,0-1,0 2,0-4,0 2,0 3,-2-3,-4-2,6 4,-4-2,0 2,0-1,2-3,-2 6,-4-2,2 0,-2 1,2 1,0-4,6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9443 24819,'626'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9495 24735,'0'0,"0"0,-4 8,-4 0,0 0,-4 4,-2-3,0 2,-2 1,-2-1,3-2,7-3,-5 2,11-7,0 1,2 0,4-2,2 0,-1 0,-1 2,2 7,4-9,-3 8,1-1,4 3,0-1,-2-1,-2 1,2-1,2 0,-2 0,4-2,0 0,-4-2,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9971 25072,'0'0,"4"49,-4-27,0 0,0 2,0-2,0-3,0 0,0-9,0 4,4-4,2-2,2-5,2-3,4 0,-4 0,4-3,0-3,-4-2,0 1,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9941 25197,'0'0,"38"-12,-28 8,2 2,8-4,0 3,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5061 24088,'4004'0,"-4004"2182,-4004-2182,4004-2182</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4821 23847,'4524'0,"-4524"2702,-4524-2702,4524-2702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4204 23634,'0'0,"0"14,0 1,0 2,-2 2,-4 3,4 1,2 1,-4-6,4 0,-4-6,4-4,0-2,0-8,4-13,0-2,-2-4,4-2,-4-8,2 5,-4-1,0-1,6 1,-6 5,0-1,2 2,-2 10,4 1,-4 3,4 5,-2 2,4 0,-2 2,4 15,-3-2,3 7,8 4,-6-2,6 7,-2-3,8 2,-8-4,2-2,-4-3,0-4,-6-4,0-4,-6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4226 23775,'0'0,"57"-29,-35 25,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9645 23607,'0'0,"19"56,-11-39,0-2,-6 4,2-6,8 6,-4-8,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9645 23605,'0'0,"53"-12,-39 12,2 0,-4 0,0 0,-4 0,0 6,-8 0,0 0,0 2,-4 4,-6-3,4-1,-6-2,8 0,0-3,0-3,8 0,8 0,0 0,0 7,0-1,2 0,-4 5,4 2,-6 1,-6-1,4 0,-6 0,0-2,-8 0,0-4,-6-3,4 0,-4-4,-2 0,4 0,0 0,4 0,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4403 26836,'0'0,"-14"-30,10 24,-4 6,0-4,0 4,-4 0,2 0,0 5,-4 5,2 6,-2-5,2 8,4 1,2-1,-2 2,8 1,0-6,2 2,14-4,4-6,2-4,6-4,-2 0,0-4,6-7,-6 0,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9461 26786,'0'0,"4"57,0-41,0 2,-2 1,4 0,2 0,-2-3,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9443 26786,'0'0,"68"-4,-50 12,0 3,-2 7,0-6,-4 8,-2-5,-2 8,-8-2,0-5,0 1,0-1,-8-4,-6-2,-4-4,6 0,-8-4,4-2,6 0,-2 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">3974 24400,'0'1694</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">3933 24470,'0'0,"-25"53,21-45,4-4,-4 0,4-2,4-10,6 0,-8-3,2-3,0 2,4-4,-7-2,3 0,0-1,0 0,-4-1,4 7,-2 0,2 5,-4 2,0 1,6 2,-5 3,3 3,-2 8,-2-1,8 3,-2 4,-2-1,2 3,2-4,-4 2,6-2,-2 0,4 2,0-1,-6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">3904 26056,'0'0,"41"66,-31-46,3-4,-7 1,2-1,-2-5,-2-2,0-7,-4 2,4-4,-4-13,0 5,0-5,0-3,4 7,-4-1,4 0,0 3,6 0,-4 1,8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">3250 25126,'0'0,"4"29,-2-11,6 2,-2 6,2-2,0 2,4-1,-2-8,-6 4,4-6,-2 0,-6-2,6-5,-6-2,4-2,-4-10,0 0,0-2,0-3,0 2,-4-1,4 1,0-6,0 4,0-3,0 5,0-1,0 4,0 2,4 0,0 4,0 0,2 0,0 6,2 2,2 2,-2 1,0 1,-1-1,7-2,-6 1,-2-3,2 1,-4 1,4-9,-4 4,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5360 23482,'3415'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8721 23401,'0'0,"12"14,0-8,0-4,-2 4,4 0,0 2,-5-1,1 2,-2 3,0-5,-8 4,4-1,-4-1,0-4,0 1,-4-2,2-4,-6 0,0 0,0 0,1 0,1 0,-4 0,4 5,4 1,-6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5370 23429,'0'0,"2"0,-2 2,0 6,0-4,-2 6,-8-2,2 2,4-1,-4 0,0 3,0-4,0-2,4 2,0-8,0 5,4-3,-4-2,8 0,0 0,4 0,-4 0,4 0,4 0,-4 0,0 2,8-2,-6 2,5 0,-3 1,6-1,-4 4,-4-4,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6655 23194,'0'0,"8"2,-5 8,-3 2,0 0,4 4,0-1,-2-4,8 4,-8-6,4-1,2-2,0-3,0-3,0 0,0-3,0-5,-8-3,8 1,-6 1,2 0,-4 1,0 1,0 5,2 6,4 1,4 3,-4-5,4 3,6 1,-3-5,5 4,2-6,-6 0,2 0,-4 0,-2-4,-2-5,-4 1,-4-1,0 0,0-2,-4 2,-4 1,-2 0,-2-2,-4 4,-2 2,2 0,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8563 24846,'427'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8916 24731,'0'0,"0"8,6-2,-4 2,6-2,0 2,4 3,-6-3,2 2,4-2,-4-2,-4 4,-2-5,6 2,-4-3,2 2,-6-2,2-2,-2 0,0 1,0-1,0 2,0-4,0 2,0 3,-2-3,-4-2,6 4,-4-2,0 2,0-1,2-3,-2 6,-4-2,2 0,-2 1,2 2,0-5,6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9441 24832,'626'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9493 24747,'0'0,"0"0,-4 8,-4 0,0 0,-4 5,-2-4,0 2,-2 1,-2-1,3-2,7-3,-5 2,11-7,0 1,2 0,4-2,2 0,-1 0,-1 2,2 7,4-9,-3 8,1-1,4 3,0-1,-2 0,-2 0,2-1,2 0,-2 0,4-2,0 0,-4-2,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9969 25087,'0'0,"4"49,-4-26,0-1,0 2,0-2,0-3,0 0,0-9,0 5,4-5,2-2,2-5,2-3,4 0,-4 0,4-3,0-3,-4-2,0 1,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9939 25213,'0'0,"38"-12,-28 8,2 2,8-4,0 3,-2-6</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:08:05.831"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">266 4 9418,'0'0'11749,"0"-3"-10808,-1 53-1275,2 58 554,8-55-3381,-7-44 1204,1-1 1,0 1-1,8 14 0,-4-11-8137</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="636.15">409 134 10282,'0'0'8825,"0"25"-7339,-1-11-1411,1-6-71,-1 0 0,1 1 0,2 14 0,-2-22-42,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,3 0 0,-4-27 150,-2-25-62,1 31-1,0 1 1,2-1-1,3-25 0,-4 45-47,0 0-1,1 0 1,-1 0 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,35 17 68,-27-12-159,-1 0-1,0 0 1,-1 1-1,0 0 1,0 0 0,0 1-1,-1 0 1,0 0 0,0 0-1,-1 1 1,0 0-1,-1 0 1,0 0 0,0 0-1,2 14 1,-4-20-246,-1 0 1,1 1-1,0-1 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,0-1 1,0 1-1,6 2 0,7 5-3880</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4851.83">692 78 11666,'0'0'6473,"-119"59"-5376,56-13-681,-27 29-272,-25 27-144,-8 18-1169,15-18-1303,35-28-3529</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:08:07.920"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 275 4216,'0'0'11504,"0"-4"-10216,0-10 71,1 22 311,5 46-435,-2-44-1824,0 1 0,0-1 0,1 0 0,8 12 0,17 12-6933,-20-26 2326</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.41">129 303 1384,'0'0'14850,"4"23"-13520,-2-13-1347,0 1 1,1-1-1,1 0 0,-1 0 0,2 0 0,-1 0 0,1-1 1,1 0-1,0 0 0,12 15 0,-18-24 12,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,3-30 261,-3 16 1,0 0 0,-4-26 1,3 39-241,-2-7 91,1 0 0,0 0-1,1-1 1,0 1-1,0-1 1,1 1-1,1-20 1,0 28-60,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,3 0 0,-2-1-33,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,3 3 1,-1 0-62,-1 0 0,0 1 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,2 7 1,0 4-196,0 1 1,3 26 0,-5-28-1233,0 1 0,1-1 0,6 16 0,-6-20-2497</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.29">454 133 6281,'0'0'14054,"8"-5"-13684,-8 4-368,5-2 15,0 0 0,-1 0 1,1 0-1,0 0 0,1 1 0,-1 0 0,0 0 1,1 0-1,-1 1 0,1 0 0,-1 0 0,12-1 1,-16 3-18,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 2 0,-2 32-2,2-33 2,-10 35 40,8-32-25,0 0-1,1 1 1,-1-1 0,1 1 0,0-1-1,0 9 1,3-13 13,0 0 0,0-1 0,0 1-1,1 0 1,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0-1,3-1 1,0 1 123,71 0 304,-26 0-4231,-40 0-530</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3459.08">747 0 7257,'0'0'13939,"-24"31"-13355,-4 0-336,-11 12-248,-13 22-96,3-12-1392,11-7-3409</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -832,386 +1691,35 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-07-27T20:27:02.858"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:09:23.454"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
-      <inkml:brushProperty name="width" value="0.07" units="cm"/>
-      <inkml:brushProperty name="height" value="0.5" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFC00"/>
-      <inkml:brushProperty name="transparency" value="127"/>
-      <inkml:brushProperty name="tip" value="rectangle"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br2">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
       <inkml:brushProperty name="color" value="#F6630D"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4816 28138,'0'0,"0"60,0-41,0 6,0-4,0 1,0-4,0 2,0-8,0-3,0-5,2-4,2-5,-4-5,0-6,0 2,0-4,0 2,0-6,0 0,0-1,0-2,0-1,0 9,0-7,0 10,0 0,0 4,0 4,0 2,0 2,4 8,4 4,0 2,4 8,0 2,4 3,-4 1,8 3,0-1,-2-3,0-3,4 10,-10-8,-1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4834 28274,'0'0,"58"-21,-44 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5065 28245,'0'0,"26"64,-18-56,-2-4,-2 0,-4 0,4-4,-4-4,-4-4,-6 4,2-6,6 0,-8 2,6-3,2 0,-4 1,6-1,0 5,0-5,0 5,0 4,6-2,-4 1,6 3,6 0,-2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5203 28285,'0'0,"41"-16,-39 14,8-2,-6-2,0 2,0 2,-4-4,0 4,0-3,0 0,0 3,-4 0,-4 0,4 2,-4 0,2 0,3 0,-3 2,2 2,-2 3,2-2,0 3,4 2,0 1,0 0,0-3,8 2,2 0,-1 0,9-4,2-2,0-2,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5423 28263,'0'0,"-34"-10,28 10,4 0,-8 2,6 6,0 0,0-2,2 2,2 4,0 0,0-2,0-2,6 0,6-2,-4-6,4 0,0 0,2 0,-8-6,2-4,-4-2,0 4,0 0,-4 2,0 0,0 2,0 0,0 3,4 1,0 1,0 7,6-2,-4-2,6 0,2 2,-4-6,14 4,-2-4,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5888 28365,'0'0,"26"64,-34-39,-6-2,4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6207 28162,'0'0,"-16"51,16-26,0-10,0 3,0-4,0 0,0-4,0-6,0 0,0-8,0-6,0 0,0-9,0 2,0 0,0-4,4 0,-4 0,2 4,4 4,-6 2,4 3,0-3,0 5,0 1,0 5,0-4,2 4,-4 0,1 0,5 6,0 6,2 4,4-3,0 12,0-8,4 5,-8-2,6 0,0 1,4 0,-8-3,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6215 28257,'0'0,"59"-12,-27 9,-4-1,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6109 29426,'0'0,"0"62,0-50,0 0,0-4,0-4,0-8,0-4,0-2,0-4,0 1,0-6,0 2,0-6,0 1,0-1,0-4,0-3,0 3,0 1,0 7,0 2,0 7,0 5,4 5,0 0,4 7,4 5,0 6,0 0,6 8,-4-1,6 5,-2 1,-5 1,5-6,-6 1,4-1,-4-2,-10-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6117 29422,'0'0,"28"-4,-16 4,4 0,0 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6446 29346,'0'0,"66"-11,-54 9,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6496 29418,'0'0,"55"0,-39-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7208 29119,'0'0,"4"-4,-8 10,2 3,-8-1,2 5,-4 4,4 2,1 4,-1 6,0 7,8 10,0 0,8-4,3-5,1-8,-4-8,2-3,2 0,10 4,-2 0,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7334 29309,'0'0,"6"35,-2-20,-2 1,4-7,0 6,0-5,0-1,0-1,2-6,0 0,-4-2,2-2,-2-2,4-4,-8-1,2-1,-2-1,0 2,0 1,0 2,0 4,0 0,0 4,0 2,6 2,-4 0,10 1,-2-3,0 5,2-3,1-4,1 2,0-4,0 0,2 0,-4-4,-2-2,0-1,-2-1,-4 4,0-1,-4-3,0 2,-4-1,-2-1,-4 3,4-3,0 0,-4 4,0-5,4 9,0 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7755 29316,'0'0,"31"27,-21-18,4 0,-2 1,0-1,2-1,0 3,-6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7842 29305,'0'0,"-24"43,20-26,-2 2,2 2,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8021 29204,'0'0,"0"2,0 2,2 5,2 1,0 3,-2 2,2 1,4 2,-6-2,4 2,0 0,-2-2,2 0,-2-5,0 2,-2-5,4-3,-6-5,0 2,0-2,0-5,0 1,0-2,0-3,0 1,0 1,-6-3,6 2,0-3,0 6,0-3,0 0,0 4,6-3,-6 5,3 0,1 1,0-1,0 2,4 0,-8 2,8 1,-2 6,2-1,-2 0,4 1,-6 4,2-3,0-2,0 1,-4 2,0-3,-2-1,0 1,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8244 29130,'0'0,"16"14,-4-5,0 6,4 2,2 4,4 0,2 9,4 6,-3 4,-7 4,-6-3,-8-9,-4-5,0-12,-2 3,-4 0,2-2,-8 8,4-9,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8710 29305,'0'0,"20"-4,-10 4,2 0,8-4,-2 2,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9199 29106,'0'0,"-16"39,8-23,0 6,-2 6,4 10,2 8,4 2,0-5,6-1,4-8,0 0,0-6,0-2,-2-10,2-3,4 4,-2-2,10 6,-2-11,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9501 29335,'0'0,"0"24,0-14,0-1,0 5,2 1,-2-6,2 3,0-3,4-3,0-3,0-1,0-2,-2 0,4 0,-6-5,2-1,0-3,-2 3,-2-4,0 5,0-1,0 6,0-7,0 5,2 4,0 5,0-1,2-3,0 3,6 0,-4-4,6 4,-4-1,6-3,-5-2,3 0,-4 0,0-2,0-5,-2 1,-6-4,4 5,-4-1,-4-3,-2 1,0 1,0 1,-6 4,6 2,-2 0,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9495 29195,'0'0,"0"-2,-6 2,2 0,-2 2,0 2,0-4,0 7,-6-5,2-2,0 2,4-2,-6 3,6-3,0 0,2 0,1 0,1 0,2-3,2 3,0 0,-1 0,3 0,-4 0,4 0,-4 5,0-1,0 0,0 2,0 2,0-3,0 2,0 3,0 2,0-2,0 4,0 0,-4 4,4-1,0 6,-4-6,4 0,0 0,0 0,0-4,4-1,0 3,-2-6,2 3,2-6,2 2,2 0,0-6,0 6,4-6,-8 4,8-6,-4 4,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10237 29201,'0'0,"23"-2,-15 2,2 0,4 0,-4 0,2 0,0 0,-6 0,0 0,0 0,-4 0,-4 2,2 3,-4-5,2 0,2 2,0 0,0 1,0 5,0 0,0 0,0 4,2 4,4-4,-2 2,0 4,-2 0,4-1,0 4,-4-6,2 6,2-6,-4 4,4-6,-6-1,6 3,-6-6,0 3,0-4,0 0,0 0,0 0,-2-2,-2 0,-4-4,2 0,2-2,-4 0,0 0,0 0,0-2,2 0,2-2,-2 2,0 2,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10589 29312,'0'0,"28"29,-14-22,-2 4,2-1,-2-1,2-1,-6-2,0 1,-2-5,-4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10677 29312,'0'0,"-26"25,16-14,-2 4,6 0,0 6,0-10,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11041 29189,'0'0,"0"34,4-18,-2-6,2 8,2 0,-2-2,0-1,4 4,-6-6,4 0,-2-3,0-3,-2-1,-2-6,6 4,-4-4,-2-4,0 2,0-3,0-3,-2 0,-4 1,6 1,0-3,0 1,0 2,0-3,0 2,6 5,0-4,-4 2,0-2,4 6,2 0,-8 0,8 0,0 4,-4 2,2 0,2 1,-2 6,-3-5,3 1,0 4,0-5,-2 2,0-1,-2-1,4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11292 29335,'0'0,"28"0,-20 0,8 0,-2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9822 29388,'0'0,"16"-4,-12 4,2 0,0 0,8 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9973 29314,'0'0,"28"-13,-24 13,4 0,-2 0,-2 4,0 1,-2 6,2-5,-4 6,0-1,0 6,-4-6,2 3,-2 1,0-6,-2 3,0 1,4-8,2 1,-2-2,4-4,2-4,4 0,0 2,-4-1,10 1,-10 2,10 0,-6 0,-2 0,4 0,-2 0,2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10171 29301,'0'0,"6"38,-4-27,0 4,-2-3,0 1,8-2,-4-2,0-1,-2 2,4-3,-2-1,0 1,6-5,-4 0,-4-2,4 0,-1 0,-3-2,0-5,0 5,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10149 29375,'0'0,"32"0,-16 0,-8-4,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10985 29121,'0'0,"-32"2,24 1,-2 1,2-4,0 0,2 0,4 4,-4-4,4 0,2 2,0 0,2-2,-2 4,0-1,0 1,0 0,0 0,0 3,0-1,0 0,0 5,0-3,0 7,6-2,-6 3,0 2,2-2,-2 0,0 4,0-2,0-1,0 0,0-1,0-1,0 2,0-8,0 5,4-5,0-2,4 1,-2-4,6 2,2-4,0 0,2 0,2-2,-2 5,0-4,12 5,-8-4,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11464 29242,'0'0,"33"-17,-27 15,4 0,2 2,-10 0,6 2,-6 4,-2 2,0 2,0 0,0 4,-2-2,-6 2,2-1,-2 4,2-7,0 1,0-2,2-5,0 2,4-4,0 0,4-2,0 0,4 0,-2 0,4 0,-2 0,0 0,2 0,0 4,2-4,-2 0,0 2,6-2,-6 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11731 29206,'0'0,"8"33,-8-23,4 6,-4-6,0 4,0-2,0-3,4 2,0-3,4-2,-4-2,6-4,-3 2,1-2,0 0,0 0,2-2,-6-2,4-4,-2 2,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11683 29275,'0'0,"34"-8,-24 8,2-2,0 2,8 0,-7-4,1 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11876 29157,'0'0,"32"-4,-22 4,6 0,-2 0,-4 0,-2 0,0 0,-2 0,-2 4,0 0,0 5,-2-7,-2 5,4-3,-4 0,0 0,0 0,2 0,-2 3,0-5,0 5,0 1,2 0,-2 3,6 2,-4 3,4-4,-4 6,2 2,0-2,2 0,0 0,-6-1,4 1,-4-4,0 3,0-6,-4 1,-2-4,-2-2,2 0,-4-2,2-2,-2-2,0 0,-2 0,2-2,4 0,-4-2,2 0,6 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12143 29074,'0'0,"12"34,-2-21,-1 8,1 7,6 3,0 17,4 4,4-3,-8-5,-8-6,0-10,-8-6,0-4,-4-6,-6 10,0-6,-6 2,2-7,-6 2,6-7,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5233 30613,'0'0,"17"0,-7 0,2 2,4-2,0 0,7 0,-3 0,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5298 30640,'0'0,"-6"45,2-31,4 0,-2-2,2 0,0-3,0 0,2-1,6-2,0-2,2-2,-1-2,3 0,4 0,0-4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5662 30647,'0'0,"38"0,-26 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5696 30707,'0'0,"42"0,-34 0,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6380 30409,'0'0,"0"2,0 1,0 5,4 4,-4-2,0 4,4-2,-4 2,0 2,4 2,-4 4,0-4,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6268 30420,'0'0,"34"-2,-18 2,4 0,-2 0,6 0,2 0,8 0,-6 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6155 30727,'619'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6155 30938,'0'0,"-4"0,4 0,0-2,0-2,6 0,2 4,-2-6,2 4,2 2,-2 0,0 0,0 0,-2 2,-4 8,2 0,-2 2,-2 4,0 0,-2 0,-2-1,-2 0,4-2,-6-1,4-3,0-1,4-3,-2-3,2 0,2-2,6 0,-6-2,6 0,2-1,-2 1,-1 2,-1-2,2 0,2 2,-2-2,0 2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6404 30911,'0'0,"4"45,-4-31,0 2,0 0,0-1,0 2,0-2,6-2,0-3,-2-5,4-1,-2 2,2-4,-2-2,2 0,-2 0,0-6,-2 4,4-5,-6 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6354 31002,'0'0,"46"-6,-28 4,0 2,2-2,-4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6672 30954,'0'0,"-6"22,4-10,2 6,-6 2,2-4,2 6,0-5,2-5,0 5,0-10,0 1,0-4,2-4,0-2,4-4,-2-5,-2-1,4-5,-4 0,2-5,0-1,-4 2,4-1,-4 2,4 2,-4 2,0 8,4 1,0 2,-4 1,4 4,-2 0,2 0,2 7,-2 2,0 1,2 4,2 0,0 4,0-2,0 0,0 6,-2-4,2-3,-4 2,2-2,-4-4,2 0,-2-3,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6686 31042,'0'0,"42"-18,-30 16,8 2,-2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6284 30468,'0'0,"24"-8,10 4,10 0,10 4,-2-4,-18 4,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7057 30422,'678'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7707 30337,'0'0,"12"11,-6-3,0-1,4-1,-2-2,2 3,-2 1,3 4,-3-1,-8 0,4 1,-4 0,-4 0,2 0,-5-6,1 4,0-4,-2 0,0-2,8 2,-2-6,-2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8178 30422,'0'0,"0"21,2-12,-2 3,0 0,4 0,0-2,-4 0,8 2,-2-2,-2-8,2 4,2-4,-6-2,2 0,0-8,-2 0,2 2,-4-4,2-2,-2 4,0 0,0 0,0 6,-2 2,2 2,0 3,0 2,6-1,-2 2,4 2,0-5,4 2,0-3,2 2,0-4,-2-2,0 0,-8 0,2-8,0 4,-4-3,-2 2,0-1,0-2,0 2,-2 0,-4-4,-2 6,6-4,-10 0,6 0,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8399 30380,'0'0,"4"31,-2-22,4 7,0 0,0 0,4-2,-8 0,6-4,0-3,-2 4,-6-11,0 4,2-4,-2-4,0-7,0 6,0-3,0 2,0-2,0-1,0 4,0 1,6 4,-6-4,2 4,2 0,0 0,-2 4,4 0,2 1,0 4,-6-1,6 0,0-2,0-1,2 6,-2-7,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8641 30486,'0'0,"-32"-24,26 24,-2 0,6 2,0 2,-2 0,0 0,4 2,-4-2,4 0,0 2,4-2,0 2,0-6,0 2,0 1,4-3,-4 0,2 0,-2 0,2 0,-4-3,4 3,-6-2,6 2,-4 0,-2 0,4 0,0 0,-2 2,4 3,2-5,0 5,0-3,2-2,-1 0,1 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8736 30388,'0'0,"4"28,0-16,-2 1,6 0,-2 1,2 0,-6-6,6 2,0-2,0-3,0 0,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8738 30464,'0'0,"40"-12,-26 12,4 0,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9403 30418,'0'0,"12"34,-4-22,-6 0,4 2,2 2,-2-9,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9543 30422,'0'0,"-22"2,18 4,0 0,2 1,2-2,0-1,0 0,0 0,0 0,6 0,-2-2,6 0,-2 3,-2-2,4 1,-2 2,0-2,0 4,-2-2,-4 1,-2 2,0-1,0-2,0-4,-2 0,2 1,-4-3,2 0,-2-3,0-1,2-2,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10013 30464,'0'0,"32"-2,-22 2,2-2,-2 0,-2-4,0 6,0-8,-6 5,4-2,-6-1,0 4,-6-4,0 4,2 0,-4 2,0 0,6 0,-6 0,0 4,0 4,2-2,0 2,2 0,0 4,4 0,0 0,4-2,4 0,2 0,6-4,0 0,8 0,-8-6,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10165 30454,'0'0,"28"28,-16-22,-4 2,8 2,-3-3,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10246 30454,'0'0,"-33"28,29-20,-2 8,0-2,4 2,2-5,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10300 30490,'0'0,"4"28,0-14,-2-1,0 4,0 0,0 0,6-3,0-1,-6-2,4-3,0-5,-2 3,-4-4,0-10,0 5,0-5,-2-3,-6-2,6-6,-4 2,2-1,-2-6,0 7,4 0,2 5,0 2,0 4,0-2,2 4,2 2,4 0,-4 0,4 2,-2 0,-2 2,8 2,-8 2,2 0,0 1,-4 2,-2-1,0-2,0 0,-2-4,-4 1,6-1,-6-2,4 0,-6 0,8-5,-6 5,6-6,0 4,0 0,0 0,8 0,0 0,0 0,6 2,0-4,2 2,2 0,2-3,-2 0,-2 3,-4-4,-4 2,-2 0,-6 0,0 0,0 0,-6 1,4 3,-4 0,0 0,0 0,0 0,2 0,-2 0,2 3,0 1,-2 0,4 2,0 0,2 0,0 1,2 2,6-3,-2 0,6-2,-4 2,8-6,2 3,-10-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10683 30430,'0'0,"-32"6,26 1,4 2,0-3,2 4,0-1,0 2,8-3,-4-2,14 0,-4-3,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10755 30363,'0'0,"8"33,-4-18,0-6,4 5,-3-2,-3 0,6 2,-4-6,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10784 30436,'0'0,"28"0,-18 2,2-2,-6 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10859 30446,'0'0,"28"0,-18 0,-6-2,0 2,4-6,0 4,-8 2,6-8,-4 8,2-8,-4 8,0-4,0 0,-4 3,2 1,-4-6,2 6,-8 0,8 6,0-5,0 5,-2-2,4 2,2 4,0-2,0 0,2 2,4-2,4-3,4 4,2-7,-2 0,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11099 30369,'0'0,"6"13,-2-5,0 7,0-8,0 9,0-3,4-2,-2 1,-4-6,8 6,-4-6,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11107 30476,'0'0,"-34"0,26 1,0 2,8 1,-4-2,0 0,4 0,0 2,0-2,8 4,-4-2,6 0,0 4,6-6,-8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11677 30341,'0'0,"4"36,-2-23,2 2,4 2,-4 2,0-6,4 1,-4-5,4 2,-2-3,2-6,-2 2,6-4,-6 0,0-6,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11639 30446,'0'0,"32"-22,-22 22,4-2,-4 2,8 0,-4 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11814 30424,'0'0,"0"28,0-24,8 4,0-4,0 0,-2-2,0 0,0-2,4 0,-4-2,-4-2,-2 0,0-2,0 0,0 0,-2 1,-2-2,-2 7,0-6,-2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11940 30446,'0'0,"10"30,-2-20,-8-6,8 2,-4-2,0-4,-4-4,0-2,0 2,-4-6,0 4,4-2,0-2,0 4,0-2,0 6,0-6,0 8,4-6,0 4,-2 2,6 0,-2 0,4 0,10 8,-4-8,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12163 30452,'0'0,"-30"-16,30 16,-8 0,4 0,0 5,2-2,-2 5,4-6,0 6,0-2,0-2,6 0,-2-3,8-1,-10 0,8 0,-4 0,2 0,-2-1,-1-3,-3 2,2 2,0 0,2 0,-4 6,2 0,-2 2,0 2,0 3,0 4,2-7,-4 6,8 0,-8-7,8 6,-2-5,0-3,-2 1,4-6,0 2,-4-4,2 0,4 0,-4-4,2 2,2-6,-4-1,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12332 30422,'0'0,"8"14,-4-7,2-2,0-1,2-2,0 0,0 0,0-2,-1 0,-5-2,4-2,-4 0,2-1,-4-2,0 1,0 0,0 2,-6 2,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12491 30428,'0'0,"32"0,-24-6,-2 4,-2 0,-2-4,2 1,-4 3,0-3,0 1,-6 2,2-2,-2 2,-2 2,0 0,2 0,2 6,-4-4,4 5,0 1,2-1,2-3,0 4,6 3,2-4,4-1,-2 0,6-2,0 2,2-6,6 0,-4 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12738 30367,'0'0,"-8"-28,8 22,4 0,-4 1,6 3,0 0,2 2,0 0,2 0,2 2,-6 5,6 3,-8-3,0 5,-4 3,0 0,0 4,-2-2,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12842 30623,'0'0,"14"4,-14-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">1774 30574,'0'0,"8"32,-4-21,-4 3,0-1,0 0,0-1,0 2,0-6,-4 0,4-2,-2-4,0-8,2-2,0-2,0-2,0-2,0 1,2-2,0 3,4 3,-2-1,-2 5,2 3,0 2,2 0,-2 5,0 3,4 1,-2 5,-2-1,-2-2,2-1,0-2,-2-1,-2 0,0-14,0-2,0-1,0-2,0-2,4 2,0 3,-4 1,4-1,0 7,-4 0,6 2,-4 0,6 4,-4 5,0-1,4 1,-4 1,0 1,4-6,-2 7,2-2,-6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">1993 30604,'0'0,"-12"-11,12 11,-6 0,4 5,0 3,0-3,-2 3,4-2,0 3,0-3,0-2,0 3,4-7,-2 0,6 0,-6 0,6-4,-4-1,0-1,-4-3,4 1,0 2,-4 1,0 1,0 2,0 0,2 2,2 0,-4 4,2-2,0 3,2-1,-2 2,4 0,-2-4,8 5,-6-5,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2069 30572,'0'0,"40"24,-30-16,4-1,2 1,0 0,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2145 30556,'0'0,"-16"35,8-11,4-3,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2541 30430,'0'0,"13"14,-7 0,-2 4,2 0,0 1,0 0,2-2,0-2,0-2,-2-3,2-6,-2 1,-2-5,0 0,-2-5,4 1,-6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2523 30520,'0'0,"27"-9,-15 6,2 3,-2 0,8 0,-2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2698 30524,'0'0,"-2"12,8-6,0-1,2-1,2 1,-2-5,2 0,0 0,-2 0,-2-5,-4-2,0 3,-2-4,0 0,-4 4,0-1,-4 3,-4 2,2 0,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2828 30504,'0'0,"6"20,0-12,-2-4,2 0,-3 1,1-3,0-2,-4 0,0-3,-6-3,4 0,-1 2,1-2,-2-1,2 0,0 1,2 2,0 0,0 2,2-2,4 2,-3 0,3 2,4 0,4 0,-2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3013 30458,'0'0,"-38"12,30-6,2 2,2-4,2 0,0-2,2 2,0-2,2-2,6 0,0 0,2 2,0-2,0 0,-2 6,4-4,-2 3,-6 2,2-1,-6-2,0 4,0-3,-6-3,-2 4,-2-6,2 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3111 30472,'0'0,"-4"38,4-28,4-2,2-2,-2-2,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3184 30466,'0'0,"-8"32,10-24,4-1,2-2,-2-1,6-2,-4-2,4 0,-2-2,-2-5,0 2,-4-1,-4 2,0-2,0 4,-4-2,-4 2,0 0,-2 2,2 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3304 30458,'0'0,"6"34,-4-26,-2 0,2-1,2 0,-2-5,0 2,0-4,-2-6,0-1,0-2,4-1,-2-2,-2 2,4-2,-2 2,4 2,-4 0,6 2,-6 4,4-2,0 4,0 0,2 2,-4 2,4 4,-2 0,0 0,4 2,-2-2,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3597 30444,'0'0,"-4"-24,2 20,-4 2,-2 0,2 2,-2 0,2 0,-4 2,2 4,-4 2,6 2,2 0,-2 2,4-2,2-3,0 4,2-7,4 2,4-4,-4-2,4 0,-2 0,-2-4,0-2,0-2,-4-2,2 0,-4 4,0-2,0 4,0 1,0 3,0-3,0 6,2-1,2 1,0 3,0 2,0-2,2 0,2-1,0 2,0-3,4 0,-6-4,8 0,-6 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3651 30333,'0'0,"8"32,-4-17,4 1,0 0,0 0,0 0,0 2,8 0,-8-4,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2181 31053,'0'0,"2"-19,-4 19,-2 0,-4 0,-2 4,0 2,4-1,-2 3,4 1,-2-1,6-3,0-1,0 2,4-2,6 1,-2-1,4 2,0-1,2 1,-2 4,-2-1,-2-2,-2 3,-6 0,0-2,-8 2,-4-6,2 0,-2-2,0-2,0-4,2-2,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2238 31034,'0'0,"6"34,0-21,-2 4,2-2,0-3,2 3,-4-4,4-1,-4-2,2-1,-2-6,-2-1,0 0,-2-4,0-2,0-2,-2 0,0 2,-2-1,4-2,0 1,0 0,0 1,0 3,0 0,0 1,4 1,-2 2,6 0,-4 5,4 1,-2-2,2 3,-2 1,4-2,2 5,-2-2,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2404 31108,'0'0,"34"3,-24-3,-2 0,-4 0,2-3,-5 1,1-4,0 4,-2-5,0 5,-2-4,0 4,-3 0,3 2,-6 0,4 0,-2 0,0 2,2 4,0-4,0 7,4-1,0-1,0-1,6 2,0 0,4-1,4-2,5-1,1 0,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2588 31089,'0'0,"-34"17,34-13,0 1,0-1,6 0,-2 0,2-2,2-2,0 0,0 0,-6 0,4 0,-2-6,0 4,0 0,-2 0,0 2,-2-2,2 2,0 4,2-2,-2-2,0 2,6 0,-2 0,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">2688 31081,'0'0,"4"25,2-18,-6-1,8-2,-6 2,2-2,-2-2,0 1,-2-6,-4-1,0 0,2-2,-2-2,0 1,4-4,0 1,0 1,0 1,0 2,8-1,-6 3,6 2,2 0,10 2,-6 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3059 30972,'0'0,"0"-16,-4 16,-2 0,-2 6,2-2,-2 0,2 3,-2 0,4-1,4-2,0 2,0-2,4 0,4-2,-2 1,4 1,2 5,-6-5,0 4,2-1,-6 3,0 1,-2-3,0-5,-2 1,-6 4,2-8,-2 0,0 0,2-4,2-2,-2-1,2-3,0-1,4 2,0-3,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3129 30922,'0'0,"14"30,-10-16,-2-3,4 6,-4-1,1-7,3 4,-2-5,2-1,-2-3,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3129 30998,'0'0,"33"-12,-23 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3270 31032,'0'0,"-14"-42,14 38,0 0,0-1,0 2,4 1,2-2,0 2,0 2,0 0,4 0,0 0,2 0,0 2,0 0,-2 0,-4 0,2 1,-2-3,0 0,-2 0,-2 0,0 0,2 0,-2 0,0 0,-2 0,0-3,0 1,0 0,0 0,0 0,0-2,0 4,0-2,0 0,0 0,-2 2,0 0,-4 0,4 0,-2 2,-2 2,4-2,-2 2,4 0,-4 1,4 0,0 1,0 0,4 2,0 0,4-5,0 3,4 1,0-3,2-2,4-2,-4 0,-2 0,1-4,3-5,-8 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3611 30918,'0'0,"-22"20,16-18,0 4,4-6,2 2,0 0,0-2,6-2,2 0,-4 2,6 0,0 4,0 2,-2 0,2 4,-4-5,-6 6,0-5,0 2,-2 0,-6-5,-2-1,0 0,0-2,2 0,2 0,4 0,0-4,2 4,0-2,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">3729 30905,'0'0,"-26"2,20 2,4-1,2-3,0 4,0-2,0 0,2-2,6 0,-2 2,6 2,-2-2,-4 4,4 2,-2-2,-2 2,-4 2,0-2,-2 0,0-2,-2-2,-4 2,0-2,0-2,-2-2,2 0,0 0,2-4,0 0,4-2,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">4144 30858,'0'0,"42"-6,4-2,28-1,11-6,15 6,-2 1,-4 4,-27-2,-19 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2">4762 30735,'0'0,"-4"28,22-22,2 3,2-1,-4 1,0 3,-8-3,-6 2,-4-1,0-3,-10 1,2 0,-6 1,4-3,0 1,4 1,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47726 54743,'0'0,"0"4,0 10,0 2,0 6,4-6,2 9,-2-4,6-2,-2-5,2-2,2-4,0-8,3 0,-1 0,-4-11,2-4,-4-6,-4 4,-4 0,0 3,0 4,0 7,0-2,0 10,8 4,4 1,6 0,2 3,4-6,7-1,-8-4,-1-2,-6 0,-2 0,-8-2,0-11,-4-4,-2-3,0 0,0 0,-2 0,-6-5,0 8,0-6,0 3,6 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53464 54688,'0'0,"-10"-15,10 20,0 9,0 7,2 0,-2 4,6 1,-4-4,4-4,0-3,4-7,-4-3,2-5,-2 0,0-5,-4-12,-2-1,0-2,0 0,0 2,0 6,0 3,-2-1,2 12,2 9,6 3,6 1,2 2,-2-1,0-4,7 0,-9-4,-2-6,0-2,2 0,0-8,-2-6,-8-4,2-2,-4 2,0-3,0 2,-4 4,2 3,-4 2,2 5,0 5,0 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53147 54755,'0'0,"4"0,6 0,-4 0,8 0,2 0,-2 0,0 0,6 4,-2-2,-8 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47865 56034,'0'0,"-2"0,4 0,8 0,0-2,0 0,2 2,0 0,-2 0,4 0,3 0,10 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48442 56902,'0'0,"6"18,-6-16,0-2,0 2,-2 2,-2-2,-4 2,4 4,-4-2,2 4,-1-1,1-3,4-1,2-3,0-9,8-6,1 1,-1 0,2-2,-2 0,2-1,-2 6,-2 1,-1 2,-1 2,-2 4,0 0,-2 0,2 0,2 2,0 4,0-2,4 4,-4-1,6 2,2-3,-4 2,6-2,3 2,-3-4,8 4,-8-2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48497 56934,'0'0,"-18"43,9-21,-3-6,2 8,-2-8,10-2,2-2,0 0,10-3,6-3,3-1,7 1,-4 2,-2 1,-1 1,-11 3,-4 6,-4 2,-4 2,-9-1,3 3,4-6,2 2,4-5,6-2,8 0,3-2,5 0,-4 2,0-1,0 3,-6-3,-4 4,-2-2,-4 2,0-3,0-1,2 0,0 4,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50571 57804,'0'0,"-8"28,10-13,6 6,0-4,4-1,0 0,2 0,0-8,-2 4,2-8,-8 0,0-4,-4 0,2-8,0-4,-2-2,-2-5,0 2,0-2,0 8,-4 3,0 0,2 8,0 0,0 0,2 8,0 0,4-1,6 4,2 3,3-6,1 6,0-6,0-2,2-2,-6 0,2-4,-6 0,-2-4,-4-4,-2-2,0-4,0-2,-6-8,-2 6,-2-3,2 5,2 4,-2 2,2 4,2 4,0 2,2 0,0 0,4 4,4 6,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50925 57792,'0'0,"4"30,-4-9,0-3,0 6,4-8,-2-2,2-2,2-6,5-2,-1-4,10 0,-4-6,3 2,-3-4,-2 6,0 0,-4 2,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48863 57877,'0'0,"-6"-5,6 10,2 5,0 2,4 4,-1 2,7 2,-8 0,6-1,-2-2,0-4,-6 1,6-4,-6-6,2 4,-4-18,-4-2,0-2,-4-3,2 0,0-4,2 4,0 2,-2-3,2 6,4 0,0 4,0 0,0 3,0 3,0 6,4 7,6 1,-2 6,2-4,2 1,0 0,0-1,0-5,-5-1,1-4,0-2,-4-2,0 0,-4-2,0-6,0-5,-4 1,-2-5,0-2,0-3,-1 4,7-3,-2 6,-2 6,4 3,0 0,0 6,6 8,3 3,5 8,0 0,2 4,1-2,-1 3,-2-4,0 1,-2-1,6-4,-4-3,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50292 57905,'0'0,"30"-6,-18 2,2 4,0-2,4 2,3-4,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49862 57917,'0'0,"36"-6,-26 6,2 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49892 57982,'0'0,"44"-9,-35 9,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49219 58094,'0'0,"-8"-15,8 12,0 8,0 2,2 5,4-2,-4 3,6-4,-2 1,-4-8,-2 5,6-7,-4 0,-2 0,0-9,0 1,0-3,0-2,0 1,-8 0,8 2,0 2,0 2,0 0,0 4,0 2,8 8,-4-2,4 2,-2 2,4-4,-6 2,4-2,-6 1,4-3,-2-4,-2 0,-2 0,0-7,0-1,0 0,0 2,0 4,0-3,0 0,0 5,2 0,4 0,-2 7,2-2,-2 5,5-4,-1 3,-4-1,6 0,-4-1,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49671 58088,'0'0,"-43"6,35 6,-2 1,2 2,2 2,0-5,6 1,0-2,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49450 58125,'0'0,"4"-12,-4 12,0-3,-4-3,0 6,-2 0,0 0,2 0,-2 0,4 4,0 1,0 1,2-4,0 4,0-3,0 1,4-4,0 0,2 0,0 0,0 0,-4-2,-2 0,6-1,-4 3,-2 0,2 0,0 0,2 0,-4 0,7 3,-5 1,4-2,1 4,-3-6,2 9,-2-7,0 4,2-6,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49556 58125,'0'0,"16"5,-8-1,-6 4,6-6,2 5,-2 1,0-6</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/dev"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-07-27T22:24:53.199"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5071 49828,'0'0,"22"10,-10-1,0 7,0 2,0 6,0-1,0-3,-6 0,2-3,-4-5,2-2,0-6,-4 2,0-6,0-8,-2-6,0-5,0-1,0-6,0 3,0 3,4-2,4 4,-2 9,4-5,0 4,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5879 50004,'0'2566,"5992"-2566</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5009 50961,'0'0,"0"4,0 6,2 1,0 3,0 0,2 2,2 9,-4-7,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5293 51114,'0'0,"66"-17,-46 17,-2 0,-6 4,2 7,-12 1,-2-2,0 4,-4 0,-10-6,2 1,-2-1,-2-2,8-4,-6-2,6 0,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5323 51114,'0'0,"-4"56,10-35,0-1,-4 4,8 1,-2-3,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4987 51177,'0'0,"66"-13,-46 13,-4-4,4 2,-4 0,6 0,-8 2,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5071 51286,'0'0,"16"-16,-6 16,-8 0,4 0,0 0,-4 6,-2 2,0-2,0 2,0 2,0 3,-6 1,-2-2,2 0,-2-4,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,2-6,0 4,0 2,6-4,-2 2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5939 51286,'3230'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9171 51323,'0'2471</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8668 52161,'0'0,"8"49,-6-35,-2-4,8 7,-6-7,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8800 52186,'0'0,"-44"57,28-33,0 0,-4 15,10-9,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8969 52188,'0'0,"12"50,-12-33,0-1,0 0,0 0,0 1,0-1,-2-4,2 0,0-6,0 3,0-7,6-2,-2 0,2 0,0 0,0 0,2 0,2 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11831 52210,'0'0,"0"16,0-4,4 1,-4 3,0 0,0 0,0 3,0 1,0-4,0 2,-4-1,4-7,0-2,0 0,0-4,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8812 52320,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0 0,0 2,-10 2,-2 2,0 1,-2-7,7 6,-3-8,4 2,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12444 52537,'0'0,"-50"51,38-31,-2 4,2 1,6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12310 52553,'0'0,"12"-2,-8 2,2 0,-2 2,0 2,2 4,0-2,0 5,2-1,-2-2,-2 0,2 0,2 0,-4-6,0 4,4-4,0-2,-4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12566 53599,'0'0,"0"8,0 0,0 2,0 0,0 7,0-3,0 6,0 7,0-11,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12953 53652,'0'0,"60"-10,-42 18,0 0,0 2,-8 4,0 2,-8-1,-2 1,-2-4,-14-2,0-2,-2-6,-2 2,2-4,2 0,6-4,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12957 53656,'0'0,"2"12,0-8,-2-2,0 4,0 2,0 0,0 9,0-1,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12967 53735,'0'0,"-2"65,2-37,6-1,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12294 53745,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-2,0-2,2 2,-4 2,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12685 53745,'0'0,"-45"53,35-37,0 4,-12 7,10-3,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9219 53816,'2662'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12675 53885,'0'0,"56"-10,-50 18,-2-6,-4 8,0 1,-2 1,-10 0,2 2,2 0,0-4,-2 3,4-5,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,4 0,0 0,0 0,2 0,-2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5199 54674,'0'0,"0"16,0-8,0 5,0-1,0 4,0 0,0-1,0 1,0-6,6 4,-6-8,6-4,-4 0,4-2,-6 0,4-8,0-2,-4-2,0 2,0-7,0 1,0 0,0-4,0 3,0 1,0 2,0 4,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,2 1,-2 6,0 2,0 3,2 1,2-4,-4-2,4 1,-6-11,2-2,2-4,-4 0,0-2,0-10,0-5,-2-3,0-4,2-1,-4 5,4 2,-2 8,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 2,0 2,0 7,-2-3,6 2,-4-1,8-1,-4-6,2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5877 54700,'0'2567,"5992"-2567</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10235 55587,'0'0,"8"73,-8-51,4-1,-4 1,0-8,0 4,5-10,-5 3,2-9,0-2,0-2,-2-15,0 7,0-10,0-2,0-5,-2 1,0-1,2 1,0 8,0-1,0 7,0 4,0 4,2-4,4 8,-2 0,0 0,0 8,4 4,-2 9,2-1,0 6,4-3,0-3,-2 0,-2 1,0-7,-2-4,-2-2,0-6,-2-2,-2 0,0-8,0-6,0-9,0-1,0-6,0 1,0 3,0 1,0 13,0 2,0 2,8 6,-4 0,4 2,2 0,-4 0,4 4,-2 8,-4 2,-2 5,0 3,0 2,2-1,0-3,6 10,-4-5,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9035 55914,'0'0,"38"-37,-18 33,4-6,4 0,0 2,-4 4,-8 4,-8 0,0 8,-8 6,0 4,-8 0,-4 3,2-5,2 0,0-8,8-6,8-2,14-2,0-12,10-8,1-3,9-1,18-2,18-9,10-4,4 3,-20 16,-11 3,-29 13,-12 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10612 55739,'0'0,"0"-2,0 4,0 4,0 2,0-2,0 9,0-7,2 6,2-4,2 0,-6-6,2 2,2 0,-2-1,-2-5,0 0,0-11,0 1,-6 2,4-2,2 2,-4-2,2 4,2-3,0 3,0-2,0 0,2 4,2 2,-2 0,2 2,-2 0,0 0,2 8,0 0,0 4,0 1,4-3,-6 2,4-2,-2-2,0-4,-2 0,0-4,0 0,-2-8,0-2,4-4,0 0,-2 3,2 1,0-2,0 4,0 6,-4-2,2 4,2 0,-2 0,0 4,4 4,0 0,-1 0,1 3,0-3,2 4,0 2,2-2,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10865 55776,'0'0,"-16"-27,8 25,2 2,4 0,-2 0,-2 0,4 0,-4 2,4 4,-2 0,4 5,0-3,0 0,0 0,6-2,2 0,0-4,0-2,-2 0,2 0,-2-2,-2-4,-2 2,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 8,2-8,-2 4,4 4,0-6,-2 3,-4-7,2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11099 55747,'0'0,"-30"35,18-17,0 2,0 5,2-3,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10963 55765,'0'0,"68"33,-54-23,0 0,4 2,0-1,-4 1,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8981 55857,'0'0,"-12"34,2-19,-6 1,6 0,-2 0,0-8,6 1,4-1,2-8,6 0,4 0,6 0,4 0,-2 0,4 0,-4 0,2 0,0 0,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 56078,'0'0,"0"-2,0 10,4 0,-2 7,0-5,2 4,-2 0,-2 2,2 1,-2 3,0-4,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5872 57211,'2922'-1098</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8853 56139,'3002'1052</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4985 56170,'0'0,"58"-23,-44 23,-2 0,2 8,-4 7,-2-1,-6 4,0-4,-2 7,0-7,-4-2,-8 2,4-8,-8-4,2-2,0 0,4 0,-4 0,6-4,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5225 56182,'0'0,"4"8,0-4,-2 4,0-2,-2 2,0 6,0-1,0 7,0-4,0 0,0-1,0 1,0-6,2-2,4-4,2 2,0-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5001 56210,'0'0,"10"53,-8-37,6 7,-8-7,8 2,-8-6,4 0,0-1,-4-5,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56314,'0'0,"56"-10,-36 8,12 2,-12 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4830 56403,'0'0,"-34"43,26-31,0-2,2 0,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-2 0,2 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4862 56419,'0'0,"14"39,-12-23,2 0,-2 1,0-1,-2 0,4 0,0 1,-4-5,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12031 56870,'0'0,"0"8,0 2,2-2,-2 9,0-1,0-2,0 2,0 1,0-7,2 2,-2 0,0-2,2-6,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,0 0,4 0,2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12318 57267,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,-2 6,2 0,-6 5,4 1,-2-2,2 2,2-4,4 5,-2-5,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12504 57269,'0'0,"-54"69,42-53,-2 3,6 3,0-6,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8829 57396,'0'0,"8"57,-4-41,2-2,0 7,0-7,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8985 57512,'0'0,"-28"59,20-41,-6 4,6 3,-4-3,2-2,2 5,-2-5,6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9269 57573,'0'0,"2"4,0 4,2 2,0 6,2 0,-2 1,-3 1,-1-2,0-2,0 1,0-5,0-4,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,4 0,-4 2,2 0,6 0,-4 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8975 57733,'0'0,"50"-32,-38 32,-6 0,0 0,0 10,-4 0,-2 4,0 0,0-2,-4 1,-4 3,4-6,-4 2,0-2,4-4,2 1,2-5,2-2,2 0,8 0,0 0,0 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13196 59796,'0'0,"6"49,4-29,-4 4,2 3,-4-1,4-1,2 1,-2-4,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14707 59816,'0'0,"12"47,-4-27,0 3,10 7,-6 1,2-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16166 59837,'0'0,"0"8,4 2,0 4,4 2,0 3,0 1,0-2,2 3,-2-5,0-4,-2 0,2-8,-8-4,0-8,0 0,-8 4,-6 0,4 0,-2 2,0 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-4,6 8,0-6,2 3,4-1,2-4,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16501 59837,'0'0,"6"8,-2 4,-4 0,6 4,-4 1,0 5,2-4,-2 7,2-3,0 0,4 1,0 1,-2-6,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13633 59843,'0'0,"-12"0,12 10,0 6,4-2,4 5,-4-1,6 4,-2 3,4-9,-4 4,0 0,0-3,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17771 60082,'0'0,"-4"-59,0 39,2-8,-4 3,4 1,2 0,0 7,-4 5,4 4,0 4,0-2,0 4,6 2,2 0,2 4,6 8,-2 0,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13083 59950,'0'0,"49"-8,-41 4,2 0,-6-4,2-2,-6 4,0-2,-4 4,-4-3,-6 7,3 0,-5 0,2 3,2 3,0 0,4-2,0 2,4 0,0 2,2 0,2 4,0 5,2-7,10 4,0 0,4-4,10-2,-5 1,-3-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14390 59894,'0'0,"-16"0,10 0,0 0,-2 0,4 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4 0,0-2,0 2,6 0,0-4,6 6,-4-2,2-1,2 3,-8 0,-2 2,-2-2,0 4,0-4,-2-2,-2-4,-4 0,2-2,-2 0,2-4,4-2,0-2,2 4,0 0,0 0,2 0,4 4,2 0,2-4,4 2,2 0,0-2,-2 0,0 2,-2 0,0 0,0 0,-8-2,4-1,-4-1,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,6 4,-4 2,4 0,0-2,0 1,6-1,0 0,0 2,2 0,10-4,-2 4,8-4,8-4,0 6,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14721 59924,'0'0,"48"-6,-30 6,4 0,0 2,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15713 59918,'0'0,"0"12,0 0,0-2,4 5,4-1,0-2,0 2,-4-2,2-3,-2-5,-2 0,-2-8,0-5,0 1,2-4,-2 0,0 2,2 0,-2 0,2 5,-2-1,2 2,0 2,-2 0,2 2,2 4,-2 2,2 7,0-5,4 4,-8 2,4-6,0 0,-4-6,2 0,0-10,2-2,-4-2,2-4,2 4,-2-1,6 3,-8 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 3,0-1,0 0,4 0,0 6,-4-5,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13510 59934,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 1,-2-1,0 0,-6 2,4 0,0 0,-6-2,0 2,0-2,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-2,8 4,-2-2,12 0,-6-4,-1 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14623 59926,'0'0,"-32"16,26-8,4 0,-2 3,2-3,2 0,0 0,6 0,8-2,8-6,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15031 59942,'0'0,"-18"33,24-29,6 0,-8-4,7 0,-1 0,-2 0,-6-8,4 0,-6-1,0-1,0 2,0 0,-8 4,-4 2,3 2,-7 0,4 6,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15168 59950,'40'53,"-40"-55,-2 0,-2-8,2 0,2 2,-2 0,2-5,0 7,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 5,2-5,-4 6,4 0,-6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14891 59928,'0'0,"20"51</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13356 59967,'0'0,"-34"-39,28 39,0 0,2 4,-2 6,6 2,0 3,0-1,0-2,0 0,8-4,0 0,0-8,-2 0,2 0,-6 0,4-8,2 0,-6 4,2-4,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,10 2,-4 0,6-2,6 0,-4-4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18783 59934,'0'0,"2"37,6-17,0 4,0 1,0-1,8 7,-8-5,2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13791 59936,'0'0,"16"59,-4-47,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13947 59936,'0'0,"-52"6,46 0,-4 2,2 1,4 1,4 2,0 0,0-2,16 4,0-5,12-1,0-6,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11672 60365,'0'0,"67"-65,-25 32,24-7,34-13,18-4,13 6,5 4,-6 15,-8 12,-17 3,-33 9,-22 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17633 59967,'0'0,"-2"-21,0 19,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 5,2-3,0 0,0 6,6-6,10 2,-4-4,4 3,-2-9,-2 0,0 0,-4-9,-8 3,0-4,0-2,-4 2,-8-2,4 6,0 2,0 2,0 2,0 0,6 4,-2 2,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15168 59950,'0'0,"30"41,-22-33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16304 59977,'0'0,"28"42,-20-38,4 3,0-5,2-2,-2 0,2 0,-4-9,-2 1,-4 0,-2-4,-2-6,0 4,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19615 59950,'0'0,"12"49,-4-33,0 9,4-9,2 6,-2-3,8 1,-4-8,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13617 59973,'0'0,"50"-12,-34 12,0 0,10 0,-4 0,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18374 59975,'0'0,"0"55,0-39,8 0,-4-2,4 0,-4-3,-1-3,-3-4,4-4,-8-8,1 0,-1-7,-4 3,4-6,2 4,0-1,-2 3,4 4,-2 4,2-4,0 2,2 2,6-2,2 2,-1 0,5 2,-4 2,-2 0,8 0,-8 6,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16613 59967,'0'0,"14"63,-6-49,4-2,2 2,-4-6,4-2,2-4,-4-2,0 0,-4-8,-4-6,-2 0,-2 2,0-3,-2-1,-4 12,0 0,-2 4,4 0,0 0,4 4,0 0,6 2,2 0,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16006 59973,'0'0,"-39"6,39 2,0 2,0 0,4-2,6 0,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,0 2,-4-2,0 2,-14 0,4 2,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17761 59973,'0'0,"46"0,-18 0,-4 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16897 60025,'0'0,"4"-26,-12 26,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2 0,0-2,8 8,4 0,-2 1,2 1,-2 2,4 2,-10-2,4 0,-4 3,-4-3,0-2,0-2,0 0,-8-8,4 2,-4-2,-2 0,0 0,2-2,0-4,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18521 60076,'0'0,"54"-30,-46 24,-4-4,2 1,-6 3,0 0,-4 4,0 2,-6 0,2 0,0 4,0 0,-2 2,2 1,4-1,0 2,2-2,2 8,0-4,6-2,4 2,4-1,2-3,12-2,-4 0,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18697 60030,'0'0,"-28"12,24-6,2 4,2-2,0 2,0-2,6 5,-2-5,8 0,0-4,4 0,0-4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19920 60090,'0'0,"0"13,0-5,0-2,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-2,-2-5,2 5,0 0,0 4,2 4,4 4,2 2,2 0,4 0,6 2,14 6,-2 6,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19004 60042,'0'0,"-44"0,36 4,4 4,2-2,2 2,0-4,4 4,6-4,0-4,-2 0,-2 0,2 0,0 0,-4-2,0-2,0 2,-2 2,0 0,-2 0,4 0,0 6,2 0,2-2,0 5,2-3,10 2,-6 0,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18807 60046,'0'0,"58"-2,-35 4,1 0,2-2,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19098 60048,'0'0,"14"40,-8-29,-2-1,2-4,-2 0,0-6,0 0,-2 0,0 0,0-4,-2-4,0-2,0-5,0 7,0 0,0-2,-2 2,2 4,0 4,2 0,2 0,-2 0,6 4,0 8,2-2,0 0,2 7,4-3,0-2,-2 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19328 60105,'0'0,"-24"-23,16 23,4 0,-2 0,0 0,6 6,0 1,0-1,0-2,4 4,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-2,0 2,0-1,0 1,0 0,0 12,6 5,0-1,2 6,0-2,-1 7,3-1,4 0,-10-3,0 1,-2-6,-2-2,0-6,0-2,-2-4,0 0,0-4,2-6,0-6,0 0,0-2,4-3,2 3,0 8,-2-4,0 10,-2-1,0 1,4 0,-4 0,8-6,2-2,-2 4,0-6,-4 3,-2 5,-4 2,0 4,-2-2,-2 2,2 0,0 0,0 0,0 0,2 4,0 0,0 2,0 3,6-3,2 4,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 2,0-3,4 1,-6-2,4 4,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19811 60066,'0'0,"-42"-18,38 18,0 6,0 2,4 0,0 0,0 2,2 1,6-5,0 2,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11656 60294,'0'0,"4"30,-4-18,0 2,0-3,0 3,-8 0,0 2,2-6,0 3,2-7,4 2,0-6,6-2,2-2,2-4,-2 0,4 4,-2-5,9 7,-3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16543 60316,'0'0,"16"53,-12-33,2 4,2-7,-4 1,6-2,-4 0,2-1,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 0,0 6,0-4,0 2,2 2,6 0,-2 0,2 4,2-4,2 4,-4 0,2 8,-2 2,0 4,0-2,-4 2,-2-1,-2-3,0 0,0-4,-6-6,-2 0,0 0,0 0,0-8,0 2,2 2,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,8 0,-2 2,0-2,0-3,-2 3,-4 2,4-2,-4 0,0 0,-2 0,2-2,0 0,0-2,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-2 4,6 0,-4-2,4 6,-2 0,4-2,0 2,8 0,2 1,2-5,8-2,12 2,0-4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8708 60399,'0'331</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8201 60407,'0'301</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17138 60468,'0'0,"-4"27,6-19,2 0,0-2,0 0,2-2,-2-4,2 0,-4-2,-2-4,0-2,0 0,0 0,0-1,0 1,0 2,0 2,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4 0,-2 0,2-1,-2 1,4 0,-4-8,2 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-2,0 4,0 0,0 2,0 4,2 0,-2 2,0 0,-2 4,6 2,-6 2,2 4,4-2,0 0,0 3,0-3,12-4,-6 2,6-4,2 0,-2-4,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8348 60509,'0'0,"0"67,2-53,-2-2,4 4,-2-5,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 1,0 0,0-4,-2 4,0-4,0-3,-2 1,4 2,-2 2,2 1,-4 1,4 2,0 0,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 6,-6-4,8 3,-6 3,4-4,-2 2,2 0,-4-3,4-3,-6-4,2 0,0-4,-4 0,2 0,-4-4,2-2,2-8,-4 1,0-1,0-2,0-2,0-1,0 5,0 2,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,0 0,-2 6,2 6,2 4,-8-1,4 1,0 0,2 0,-4-6,2 7,2-3,2 0,0-2,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17008 60454,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0 0,0 0,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-4-6,-2 6,2 0,2 0,0 6,2-6,2 4,4 1,2 1,0-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17595 60553,'0'0,"-2"-10,2 10,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11608 60645,'0'0,"-4"61,4-41,0-4,4 13,-2-7,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12504 60659,'0'0,"54"-4,-38 4,-2 4,-2 2,-2 2,-6 0,-2 5,-2-5,0 4,-6 0,0-2,-4 0,0-2,8 1,-6-3,6-4,0-2,4 0,8 0,-4 0,6 0,4 0,2 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10803 60712,'0'0,"-58"2,50 2,1 0,1 4,4-8,2 8,0-6,0 4,8 2,-1-1,5 3,0 4,4-2,-4 4,0 3,-4-3,0 6,-6-6,-2 1,0-5,-2-2,-6-4,-2-4,-4-2,4 0,-4-8,2-2,4 0,2-2,2 1,3 5,1 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12276 60744,'0'0,"18"67,-12-50,2 5,-6-2,6-2,-4 3,0-7,-2-2,4 0,-4-2,4-3,-6-3,2 2,2-6,-2 0,-2 0,4 0,-4-6,0 0,0-1,-4-1,4-4,-4 2,2 2,0 0,2 2,0-2,0 3,0 1,0 2,2-2,4 0,0 2,2 0,-6 2,10 0,-6 0,4 0,-4 2,-2 4,2 0,-2 3,-2 1,2 2,0-4,-2 4,2-2,2 0,0-1,2-3,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6726 60746,'0'0,"-16"0,4 4,6 9,-4-1,0 2,4 4,-4-4,8 3,-2-5,4-2,4 2,8-8,4 2,0-6,8 0,-2 0,-2 0,-2 0,-4-6,-8-6,2-2,-6 0,-2-3,-4 5,-6-4,-2 4,2 4,-4 0,0 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,4 0,-2 0,0 0,10 0,-10 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9921 60765,'0'0,"-14"22,14-20,0 2,2-4,4 0,0 0,-4 0,0 0,4-4,-6 2,4-2,-4 2,0 0,-4 2,-2 0,2 0,0 0,2 2,-4 4,6-6,0 2,0 2,0-2,6 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11041 60787,'0'0,"58"-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7632 60809,'0'0,"56"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11085 60836,'0'0,"52"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12013 60862,'0'0,"0"4,0-4,-4 8,2 0,-2 3,-2 5,0 2,4-2,0 3,2-7,0 0,2 0,4-10,0 4,0-6,2 0,0-6,4-2,-4 2,-4-6,4 4,-4-5,0 5,-4 4,0 0,0 2,0 6,0 0,0 0,0 2,4-2,4 1,0-1,4 2,0-6,0 2,-2-2,2 0,-4 0,0-2,-4-8,-4-3,0-1,0-2,0 2,-2 2,-4 3,-2 7,-2 2,-4 0,4 4,2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7626 60897,'0'0,"50"-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6937 60897,'0'0,"8"46,-8-32,0 1,0-3,0-2,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 0,0-3,2 5,-2 0,2 0,0 0,-2 6,8 0,-4 2,4 0,-2 0,-2 4,2 10,0-4,-4 7,0-5,2 0,-2-4,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-2,-8-2,4-1,0 5,2 2,-4 2,4 2,-4 4,-2 0,2 2,4 6,-4 0,4 2,-6-2,4 5,2-7,2 4,-4-2,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8039 60897,'978'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11536 60919,'0'0,"56"-2,-38 2,8 0,10 0,-5 4,-5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9915 60939,'0'0,"24"27,-24-17,0 6,-4 0,-6 5,0-5,-2 6,-2-8,0 1,0-5,2-6,-4-4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7185 60949,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0 0,0-2,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,2 2,2-2,6 2,-4 4,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7402 60955,'0'0,"-45"33,35-23,8 6,0 1,2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7311 60974,'0'0,"58"18,-47-10,1-2,4 0,-2 4,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11636 61051,'0'0,"-34"47,30-33,-2 2,2 0,2 5,2-3,0 0,4-2,6 1,-2-9,8 0,-6-8,4 0,2 0,-2-6,-6-4,-1-3,-1 1,-4 4,-2 0,-2 6,-7 0,-3 2,-2 0,2 0,0 4,-2 4,6-2,0 2,6-2,2 1,0 1,0-2,10-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8582 61106,'0'0,"-32"-10,18 10,0 0,-2 4,2 0,0 2,-2-4,6 4,0 0,8 0,0-2,2 4,0 0,6-2,4-1,6 7,0-2,4-2,2 6,-2-2,-4 5,-2-5,-10 4,2-4,-6-2,0 3,-6-3,-6-2,4-4,-2 0,-6-4,4 0,-2 0,2-4,-2-2,2 0,4 0,0 2,4 2,-2-3,4 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/dev"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-07-27T22:25:08.783"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71225"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34055,'0'0,"-2"-9,2 13,0 9,2-3,4 4,0-2,4 3,-4-3,4-4,-4-4,0 2,4-6,2 0,-4-2,-2-10,0 0,-2-1,2-5,-4 4,-2 0,0 3,0 1,0 4,0 6,-2-6,0 6,2 6,0 8,2-1,2 7,2-2,2 7,-4-1,4 1,-4 1,-4 1,0-1,0-7,0-1,-2-2,-4-2,-2-5,0-5,-2-4,4 0,0 0,4-13,2 1,0 0,4-4,8-1,4 7,0-4,16-6,-4 5,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3109 34182,'0'786,"805"-786</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5456 34468,'0'0,"20"25,-12-17,-4-2,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9598 34531,'0'0,"42"-38,-26 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9326 34741,'0'0,"58"-30,-36 20,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5744 34701,'0'0,"20"10,-8-4,-2 0,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9058 34880,'0'0,"42"-27,-26 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6072 34858,'0'0,"40"14,-32-8,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8758 34974,'0'0,"40"-13,-30 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6358 34961,'0'0,"18"0,-10 0,8 9,0-7,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4160 34970,'0'0,"-12"24,4-8,0 1,-2 5,-4-4,2 5,0-1,0 3,4-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4018 35002,'0'0,"22"-16,-12 18,2 6,-2 6,4 3,0-5,-2 8,0-1,2 1,-4-4,-2-1,-4-5,4-4,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6762 35057,'0'0,"46"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8440 35076,'0'0,"44"-7,-22 5,-8-2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7064 35092,'0'0,"48"22,-32-22,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8132 35153,'0'0,"50"-2,-40 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7384 35153,'0'0,"46"0,-40 4,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7742 35173,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7800 35483,'0'0,"14"41,-12-33,2-2,0-4,-2 4,0-4,-2-10,0 6,0-12,0 6,-2-8,0 3,-2-1,2-2,0 1,0-1,-2 0,4 0,-2 5,2 1,0 2,0 4,0 2,2 4,4 6,-2 0,8 7,-4-5,6 0,-4 4,6-6,0 0,-2-3,4-3,-6 0,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7802 35402,'0'0,"50"61,-16-10,8 14,4 12,4 5,-2-9,4-5,0-5,-18-14,-4-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10710 36101,'0'0,"-18"47,16-35,2-2,0-2,0-2,0 0,2-12,2 0,-2 0,-2-6,0-2,4-1,-2-1,-2 2,4-1,-4 3,0 2,0 8,0 4,0 8,2 0,0 3,0 1,4-2,0 0,2 1,0-3,2-2,2-2,0-6,2 0,0 0,2-10,-4 0,0-7,0 5,-2-4,-4 4,-4-5,-2 1,0 0,0 3,-8 5,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8446 36188,'0'0,"0"45,0-35,0 5,0-7,0 4,0-8,0 2,0-14,2-2,-2-2,0-3,0-3,6 2,-6-3,2 1,-2 0,0 3,2 5,-2 0,0 10,6 0,-6 6,4 6,0 5,4-3,0 2,0 1,4-3,-6-4,4 0,-2-2,-4-4,2-4,0 0,-6-4,4-6,-4 0,8-4,-8-5,2 3,2 2,-2 0,-2 3,0 1,4 4,0 2,-2 2,2 2,-2 2,0 2,4 2,-4 4,6 3,-2-1,4 0,-2 0,4 1,0-1,0-4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8950 36119,'0'0,"-28"39,22-21,-2 3,4-1,-4 8,4-7,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10404 36119,'0'0,"0"39,0-29,0 0,4 0,2-3,-4-1,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10008 36142,'0'0,"28"-13,-24 13,4-4,2 4,0-2,-4 2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10264 36135,'0'0,"46"-12,-30 12,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10526 36125,'0'0,"-28"35,28-27,0 0,4 0,4-4,2-2,-2 0,6-2,-4 0,4-2,-4-8,4 2,-6-4,-6 4,-2-2,0 3,-2-1,-6 4,-6 4,6 0,-4 0,4 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9568 36168,'0'0,"46"-26,-34 19,2 3,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8734 36129,'0'0,"-8"53,4-34,4-1,-4 2,0-1,4-5,0 0,-2-4,2-6,0 1,2-12,2-3,-2-2,0-2,-2-3,4 5,-4-4,0 4,0-1,0 1,0 4,0-4,0 6,0 0,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-4 1,2 4,0-4,6 5,-4-3,4 4,-6-8,2 0,0 3,-2-1,-2-6,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10296 36131,'0'0,"0"45,4-31,0-5,-4-1,6 0,0-2,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9306 36154,'0'0,"34"-6,-22 10,0 0,0 6,-2-2,2 2,-2 7,-6-1,0 0,-2 3,-2-3,0-2,-2 2,-6-1,-2-9,0 4,4-8,0 2,2-2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10192 36150,'0'0,"-36"22,32-16,0 6,2-1,2-3,0 0,2 0,4-4,2 0,2-4,0 0,4-2,-2-4,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9736 36166,'0'0,"36"-8,-32 6,12 0,-8 2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9536 36154,'0'0,"-8"53,8-35,0 0,0 1,0-1,4-4,0-1,4-7,-4-2,8-4,-4 0,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8854 36158,'0'0,"48"32,-38-21,0-3,2-2,6 2,-2-6,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9884 36158,'0'0,"0"34,0-17,0-9,0 4,0 0,0-3,4 1,-4-6,8 2,-4-4,0-2,4 0,-2 0,-2 0,2 0,-4-2,6-2,-2 0,-4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10004 36172,'0'0,"0"45,0-33,2-4,0-2,0 1,4-3,-2-4,0 0,-4 0,6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9724 36178,'0'0,"-8"51,8-39,0-1,4-1,-4 0,4-2,-2 0,-2-6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10032 36190,'0'0,"42"-4,-36 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9296 36197,'0'0,"4"36,0-17,-4-5,4 2,0-8,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9564 36231,'0'0,"50"-20,-34 18,-10-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8744 36241,'0'0,"44"-16,-34 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9752 36245,'0'0,"46"-10,-36 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10046 36260,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9572 36317,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6774 36883,'0'0,"16"-10,-12 8,4-2,-2 4,2 0,-6 0,4 6,-2-2,0 2,-4-4,0 5,0 1,-4-4,0 0,-2 4,4-8,2 4,-4-4,4 2,4-2,-2 0,8 4,-4-2,0 4,0 2,2 1,0-1,-2 2,2 0,-6 0,-2-4,0 1,0-3,0 4,-8-8,0 0,4 6,-8-6,6 0,-4 0,-2 0,6 0,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4182 36951,'0'0,"-8"0,4 6,0 8,-2 0,0 9,-2 11,2 11,0 0,6-2,0-15,8-5,0-5,0-8,10 9,-2-3,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5318 36959,'0'0,"-8"0,0 4,4 2,-2-2,0 4,2 0,0-2,2 5,2-5,0 0,0 0,2 0,6 2,0 0,2-1,4 1,-2 2,0 2,-2 2,-2 1,-2 1,-6-2,0-4,-6 5,0-7,2 2,-8-8,2 4,-2-6,0 0,2 0,2-2,0-4,4 0,0-4,2 2,2-3,0 3,2-6,2 6,4-4,2 1,-4 1,4 2,-2 4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6460 36989,'0'0,"30"-16,-18 16,-2 0,0 8,4-2,-6 0,0 3,-2-3,-2 6,-4-8,0 8,0-8,-4 4,-2-3,-6-1,4 0,-2-4,-2 2,4-2,-4 0,8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4750 36987,'0'0,"12"39,-4-25,2 7,2-1,-2 5,2-3,0 4,0-1,-4-1,0 1,-4-5,-4 11,-12-13,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6466 36989,'0'0,"0"19,2-7,0-6,-2 6,8 0,-8 1,6-3,-4 0,-2 0,0-2,2-1,-2-5,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6640 37006,'0'0,"6"32,-6-22,0-1,0 1,0 0,0 0,6-4,-4 0,2 1,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,2-4,-6 4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5584 37077,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4258 37112,'0'0,"0"18,2-8,0 0,0 1,-2-1,2 0,2 2,-4-6,0 0,6-2,-4-4,-2-8,0 0,0 0,0 0,0 0,-2-5,2 1,0 4,0 2,0 0,0 0,2 0,2 6,0 0,-4 0,6 0,2 8,-6 0,6 6,0-4,-2 1,-4 3,4-6,-4 0,0-2,0-4,-2-2,0-8,0 0,0-6,0 4,0-7,0 5,0 4,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 4,-2-2,8 3,-6 1,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4462 37152,'0'0,"-4"35,4-21,0-6,0 3,0-5,4-2,-4-4,2-4,2-4,-4-1,0-5,0 4,0-6,0-1,0 7,0-6,0 8,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,0 1,0 6,-2-4,4 2,0 4,2-1,0-1,-2 0,2 4,-4-7,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4678 37124,'0'0,"-36"35,28-19,2-6,0 6,6-5,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4606 37128,'0'0,"34"33,-20-25,-4 2,4 4,-8-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6086 37128,'0'0,"16"0,-12 0,4 0,-2 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5638 37142,'0'0,"26"-6,-16 6,2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4484 37185,'0'0,"38"-4,-26 4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6354 37240,'820'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6370 37419,'0'0,"-16"19,12-13,-4 0,6-2,-4 4,2 0,0-8,4 4,-2-4,2 4,6-4,-2 0,4 0,0-4,0 0,0 4,0 0,2 0,-2 0,0 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6518 37444,'0'0,"-8"-4,6 8,-2-2,2 4,2-4,0-2,0 8,2-8,6 0,-2 0,-2 0,2 0,4-6,-8 4,4-2,-2 0,-2-4,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-2 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6942 37430,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6716 37434,'0'0,"26"-4,-12 4,-4 0,2 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6400 37434,'0'0,"10"28,-8-14,2-1,-2 1,0-2,0-2,4 3,-2-3,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6998 37438,'0'0,"4"34,-2-21,2-3,-2 0,0 0,2-2,2 0,-2-3,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6722 37462,'0'0,"4"27,-4-21,0 2,8 0,-4-4,0 0,-2 4,4-4,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6558 37485,'0'0,"-20"18,20-12,0 4,0-4,2 0,4 1,2-1,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-3,-4-1,2 2,-4 0,0 0,-6 0,0 2,-2-1,-2 5,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6766 37487,'0'0,"32"0,-26 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6784 37554,'0'0,"34"0,-20 0,-8 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7020 37558,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,2-2,-4 2,0-2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1301,7 +1809,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1369,6 +1877,572 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1">12948 70472,'0'0,"14"42,-6-26,-4 4,8-2,-4 4,6 2,-4-2,2-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1">13306 70186,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1">13314 70166,'0'0,"0"0,0-4,0 0,0 4,0-2,0 0,0-2,0 10,4-4,-4 6,0-4,0 4,0 0,2 0,0-4,-2 4,4 0,-4 0,6-4,-4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/dev"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-27T20:27:02.858"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.07" units="cm"/>
+      <inkml:brushProperty name="height" value="0.5" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="transparency" value="127"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br2">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4825 28139,'0'0,"0"61,0-41,0 5,0-4,0 2,0-5,0 2,0-7,0-4,0-5,2-4,2-5,-4-5,0-7,0 3,0-4,0 1,0-5,0 0,0-2,0-1,0-1,0 8,0-6,0 10,0-1,0 5,0 4,0 2,0 2,4 8,4 4,0 2,4 9,0 1,5 4,-5 0,8 3,0 0,-2-4,0-2,4 9,-10-7,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4843 28278,'0'0,"59"-22,-45 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5075 28248,'0'0,"26"65,-18-57,-2-4,-2 0,-4 0,4-4,-4-4,-4-4,-6 4,2-6,6 0,-8 2,6-3,2-1,-4 2,6-1,0 5,0-5,0 5,0 4,6-2,-4 0,6 4,6 0,-2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5214 28289,'0'0,"41"-17,-39 15,8-2,-6-2,0 2,0 2,-4-4,0 4,0-3,0 0,0 3,-4 0,-4 0,4 2,-4 0,2 0,3 0,-3 2,2 2,-2 3,2-2,0 3,4 2,0 2,0-1,0-3,8 2,2 0,-1 0,9-4,2-1,0-3,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5434 28266,'0'0,"-34"-10,28 10,4 0,-8 2,6 6,0 1,0-3,2 2,2 4,0 0,0-2,0-2,6 1,6-3,-4-6,4 0,0 0,2 0,-8-6,2-5,-4-1,0 4,0 0,-4 2,0 0,0 2,0 0,0 3,4 1,0 1,0 7,6-2,-4-2,6 0,2 2,-4-6,15 4,-3-4,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5901 28370,'0'0,"26"65,-34-39,-6-3,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6221 28164,'0'0,"-16"52,16-27,0-10,0 4,0-5,0 0,0-4,0-6,0 0,0-8,0-6,0 0,0-9,0 1,0 1,0-4,4-1,-4 1,2 4,4 3,-6 3,4 3,0-3,0 5,0 1,0 5,0-4,2 4,-4 0,1 0,5 6,0 6,2 4,4-3,0 13,0-9,4 6,-8-3,6 0,0 2,4-1,-8-3,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6229 28260,'0'0,"59"-12,-27 9,-4-1,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6122 29449,'0'0,"0"63,0-51,0 0,0-4,0-4,0-8,0-4,0-2,0-4,0 0,0-5,0 2,0-6,0 0,0 0,0-5,0-2,0 2,0 2,0 7,0 1,0 8,0 5,4 5,0 0,4 7,4 5,0 7,0-1,7 8,-5 0,6 4,-2 2,-5 0,5-5,-6 0,4 0,-4-3,-10-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6130 29445,'0'0,"28"-4,-16 4,4 0,1 0,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6460 29367,'0'0,"67"-11,-55 9,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6510 29441,'0'0,"56"0,-40-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7225 29137,'0'0,"4"-4,-8 10,2 3,-8-1,2 5,-4 4,4 3,1 3,-1 7,-1 6,9 11,0 0,9-5,2-4,1-9,-4-7,2-4,2 0,10 5,-2-1,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7351 29330,'0'0,"6"35,-2-19,-2 0,4-7,0 6,0-5,0 0,0-2,2-6,0 0,-4-2,2-2,-2-2,4-4,-8-2,2 0,-2-1,0 2,0 1,0 2,0 4,0 0,0 4,0 2,6 2,-4 0,10 1,-2-3,0 5,2-3,2-4,0 2,0-4,0 0,2 0,-4-4,-2-2,0-1,-2-1,-4 4,0-1,-4-3,0 2,-4-2,-2 0,-4 3,4-3,0 0,-4 4,0-5,4 9,0 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7773 29337,'0'0,"31"27,-21-18,5 1,-3 0,0-1,2-1,0 3,-6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7861 29326,'0'0,"-24"43,20-25,-2 1,1 2,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8040 29223,'0'0,"0"2,0 2,2 5,2 1,0 4,-2 1,2 1,4 2,-6-1,4 1,0 0,-2-1,2-1,-2-5,0 2,-2-5,4-3,-6-5,0 2,0-2,0-5,0 1,0-2,0-3,0 1,0 1,-6-3,6 2,0-4,0 7,0-3,0 0,0 4,6-3,-6 5,3 0,1 1,0-1,0 2,4 0,-8 2,8 1,-2 6,2-1,-1 0,3 1,-6 5,2-4,0-2,0 1,-4 2,0-3,-2-1,0 2,4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8264 29148,'0'0,"16"14,-4-5,0 6,4 3,2 3,4 0,2 10,4 5,-3 5,-7 4,-6-3,-8-10,-4-4,0-13,-2 3,-4 0,2-1,-8 7,4-9,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8731 29326,'0'0,"20"-4,-10 4,2 0,8-4,-1 1,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9222 29123,'0'0,"-16"40,8-24,0 7,-2 5,4 11,2 7,4 3,0-5,6-1,4-9,0 1,0-7,0-1,-2-11,2-3,4 4,-2-1,10 5,-2-11,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9525 29356,'0'0,"0"25,0-15,0-1,0 5,2 1,-2-5,2 2,0-3,4-3,0-3,0-1,0-2,-2 0,4 0,-6-5,2-1,0-3,-2 3,-2-5,0 6,0-1,0 6,0-7,0 5,2 4,0 5,0-1,2-3,0 4,6-1,-4-4,6 4,-4-1,6-3,-5-2,3 0,-4 0,0-2,0-5,-2 1,-6-5,4 6,-4-1,-4-3,-2 1,0 1,0 1,-6 4,6 2,-2 0,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9519 29214,'0'0,"0"-2,-6 2,2 0,-2 2,0 2,0-4,0 7,-6-5,2-2,-1 2,5-2,-6 3,6-3,0 0,2 0,1 0,1 0,2-3,2 3,0 0,-1 0,3 0,-4 0,4 0,-4 5,0-1,0 0,0 2,0 3,0-4,0 2,0 3,0 2,0-2,0 4,0 1,-4 3,4-1,0 7,-4-7,4 0,0 1,0-1,0-4,4-1,0 3,-2-5,2 2,2-6,2 2,2 0,1-6,-1 6,4-6,-8 4,8-6,-4 5,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10263 29220,'0'0,"23"-2,-15 2,2 0,4 0,-4 0,2 0,0 0,-6 0,0 0,0 0,-4 0,-4 2,2 3,-4-5,2 0,2 2,0 0,0 1,0 5,0 0,0 1,0 3,2 4,4-4,-2 2,0 5,-2-1,4-1,0 5,-4-7,2 6,2-5,-4 3,4-6,-6-1,6 3,-6-5,0 2,0-4,0 0,0 0,0 0,-2-2,-2 1,-4-5,2 0,2-2,-4 0,0 0,0 0,0-2,2 0,2-3,-2 3,0 2,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10616 29333,'0'0,"28"29,-14-22,-2 5,2-2,-2-1,2-1,-6-2,0 1,-2-5,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10704 29333,'0'0,"-26"25,16-14,-2 5,6-1,0 6,0-10,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11069 29208,'0'0,"0"34,4-17,-2-7,2 8,2 0,-2-1,1-2,3 4,-6-6,4 1,-2-4,0-3,-2-1,-2-6,6 4,-4-4,-2-4,0 2,0-3,0-3,-2 0,-4 0,6 2,0-3,0 1,0 2,0-3,0 2,6 5,0-4,-4 2,0-3,4 7,2 0,-8 0,8 0,0 4,-4 3,2-1,2 1,-2 6,-3-5,3 1,0 5,0-6,-2 2,0-1,-2-1,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11321 29356,'0'0,"28"0,-20 0,8 0,-2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9847 29410,'0'0,"16"-4,-12 4,2 0,0 0,8 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9998 29335,'0'0,"28"-13,-24 13,4 0,-2 0,-2 4,0 1,-2 6,2-5,-4 6,0-1,0 7,-4-7,2 3,-2 1,0-5,-2 2,0 1,4-8,2 1,-2-2,4-4,2-4,4 0,0 2,-4-1,10 1,-10 2,10 0,-6 0,-2 0,4 0,-1 0,1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10197 29322,'0'0,"6"38,-4-27,0 5,-2-4,0 1,8-2,-4-2,0 0,-2 1,4-3,-2-1,0 1,6-5,-4 0,-4-2,4 0,-1 0,-3-2,0-5,0 5,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10175 29397,'0'0,"32"0,-16 0,-8-4,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11013 29139,'0'0,"-32"2,24 1,-2 1,2-4,0 0,2 0,4 4,-4-4,4 0,2 2,0 0,2-2,-2 4,0-1,0 1,0 0,0 0,0 3,0-1,0 1,0 4,0-3,0 7,6-2,-6 4,0 1,2-2,-2 0,0 5,0-3,0-1,0 1,0-2,0-1,0 2,0-7,0 4,4-5,0-2,4 1,-2-4,6 2,2-4,0 0,2 0,2-2,-2 6,0-5,13 5,-9-4,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11494 29262,'0'0,"33"-18,-27 16,4 0,2 2,-10 0,6 2,-6 4,-2 3,0 1,0 0,0 4,-2-2,-6 3,2-2,-2 4,2-7,0 1,0-1,2-6,0 2,4-4,0 0,4-2,0 0,4 0,-2 0,4 0,-2 0,0 0,2 0,0 4,2-4,-2 0,0 2,6-2,-6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11762 29225,'0'0,"8"34,-8-24,4 6,-4-6,0 4,0-1,0-4,4 2,0-3,4-2,-4-2,6-4,-3 2,1-2,0 0,0 0,2-2,-6-2,4-4,-2 2,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11713 29295,'0'0,"35"-8,-25 8,2-2,0 2,8 0,-7-4,1 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11907 29175,'0'0,"32"-4,-22 4,6 0,-2 0,-4 0,-2 0,0 0,-2 0,-2 4,0 0,0 5,-2-7,-2 6,4-4,-4 0,0 0,0 0,2 0,-2 3,0-5,0 5,0 1,2 0,-2 4,6 1,-4 3,4-4,-4 7,2 1,0-2,2 1,0-1,-6-1,4 1,-4-3,0 2,0-6,-4 1,-2-4,-2-1,2-1,-4-2,2-2,-2-2,0 0,-2 0,2-2,4 0,-4-2,2 0,6 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12175 29091,'0'0,"12"34,-2-20,-1 7,1 7,6 4,0 17,4 4,4-4,-8-4,-8-6,0-11,-8-5,0-5,-4-6,-6 10,0-5,-6 1,2-7,-6 2,6-6,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5244 30655,'0'0,"17"0,-7 0,2 2,4-2,0 0,7 0,-3 0,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5309 30683,'0'0,"-6"46,2-32,4 0,-2-2,2 0,0-2,0-1,2-1,6-2,0-2,2-2,-1-2,3 0,4 0,0-4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5674 30690,'0'0,"38"0,-26 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5708 30751,'0'0,"42"0,-34 0,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6394 30448,'0'0,"0"2,0 1,0 5,4 4,-4-1,0 3,4-2,-4 2,0 2,4 3,-4 3,0-4,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6282 30459,'0'0,"34"-2,-18 2,4 0,-2 0,6 0,2 0,8 0,-6 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6168 30771,'621'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6168 30986,'0'0,"-4"0,4 0,0-2,0-2,6 0,2 4,-2-7,3 5,1 2,-2 0,0 0,0 0,-2 2,-4 9,2-1,-2 2,-2 4,0 1,-2-1,-2-1,-2 0,4-1,-6-2,4-3,0-1,4-3,-2-3,2 0,2-2,6 0,-6-2,6 0,2-1,-2 1,-1 2,-1-2,2 0,2 2,-2-2,0 2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6418 30958,'0'0,"4"46,-4-32,0 3,0-1,0-1,0 2,0-1,6-3,0-3,-2-5,4-1,-2 2,2-4,-2-2,2 0,-2 0,0-6,-2 4,4-5,-6 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6368 31051,'0'0,"46"-6,-28 4,0 2,2-2,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6687 31002,'0'0,"-6"22,4-9,2 5,-6 2,2-4,2 7,0-6,2-5,0 6,0-11,0 1,0-4,2-4,0-2,4-4,-2-5,-2-2,4-4,-4 0,2-6,0 0,-4 2,4-2,-4 3,4 2,-4 1,0 9,4 1,0 2,-4 1,4 4,-2 0,2 0,2 7,-2 2,0 2,2 3,2 0,0 4,0-1,0-1,0 6,-2-4,2-2,-4 1,2-2,-4-4,2 1,-2-4,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6701 31091,'0'0,"42"-18,-30 16,8 2,-2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6298 30508,'0'0,"24"-8,10 4,10 0,10 4,-2-4,-17 4,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7073 30461,'680'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7725 30375,'0'0,"12"11,-6-3,0-1,4-1,-2-2,2 3,-2 2,3 3,-3-1,-8 0,4 1,-4 1,-4-1,2 0,-5-6,1 4,0-4,-2 0,0-1,8 1,-2-6,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8198 30461,'0'0,"0"22,2-13,-2 3,0 0,4 0,0-2,-4 1,8 1,-2-2,-2-8,2 4,2-4,-6-2,2 0,0-8,-2 0,2 2,-4-4,2-3,-2 5,0 0,0 0,0 6,-2 2,2 2,0 3,0 2,6-1,-2 2,4 3,0-6,4 2,0-3,2 2,0-4,-2-2,0 0,-8 0,2-8,0 4,-4-3,-2 2,0-1,0-3,0 3,-2 0,-4-4,-2 6,6-4,-10 0,6 0,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8419 30418,'0'0,"4"32,-2-23,4 7,0 1,0-1,4-2,-8 0,6-3,0-4,-1 4,-7-11,0 4,2-4,-2-4,0-7,0 6,0-4,0 3,0-2,0-1,0 4,0 1,6 4,-6-4,2 4,2 0,0 0,-2 4,4 0,2 1,0 4,-6-1,6 1,0-3,0-1,2 6,-2-7,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8662 30526,'0'0,"-32"-24,26 24,-2 0,6 2,0 2,-2 0,0 0,4 2,-4-2,4 0,0 2,4-2,0 3,0-7,0 2,0 1,4-3,-4 0,2 0,-2 0,2 0,-4-3,4 3,-6-2,6 2,-4 0,-2 0,4 0,0 0,-2 2,4 3,2-5,0 5,0-3,2-2,-1 0,1 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8757 30427,'0'0,"4"28,0-16,-2 2,6-1,-2 1,2 0,-6-6,6 2,1-1,-1-4,0 0,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8759 30504,'0'0,"40"-12,-25 12,3 0,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9426 30457,'0'0,"12"35,-4-23,-6 0,4 2,3 3,-3-10,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9567 30461,'0'0,"-22"2,18 4,0 0,2 2,2-3,0-1,0 0,0 0,0 0,6 0,-2-2,6 0,-2 3,-2-2,4 1,-2 2,0-2,0 5,-2-3,-4 1,-2 2,0-1,0-2,0-4,-2 0,2 1,-4-3,2 0,-2-3,0-1,2-2,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10038 30504,'0'0,"32"-2,-22 2,2-2,-2 0,-2-4,1 6,-1-8,-6 5,4-3,-6 0,0 4,-6-4,0 4,2 0,-5 2,1 0,6 0,-6 0,0 4,0 4,2-2,0 3,2-1,0 4,4 0,0 0,4-2,4 1,2-1,6-4,0 0,9 0,-9-6,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10191 30494,'0'0,"28"28,-16-22,-4 2,8 3,-3-4,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10272 30494,'0'0,"-33"28,29-20,-2 9,0-3,4 2,2-5,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10326 30530,'0'0,"4"29,0-15,-2-1,0 5,0-1,0 0,6-3,0 0,-6-3,4-3,0-5,-2 3,-4-4,0-10,0 5,0-5,-2-3,-6-3,6-5,-4 2,2-2,-2-5,0 7,4-1,2 6,0 2,0 4,0-2,2 4,2 2,4 0,-4 0,4 2,-2 0,-2 2,8 2,-8 2,2 0,0 1,-4 2,-2-1,0-2,0 1,-2-5,-4 1,6-1,-6-2,4 0,-6 0,8-5,-6 5,6-6,0 3,0 1,0 0,8 0,0 0,0 0,6 2,0-4,3 2,1 0,2-3,-2 0,-2 3,-4-4,-4 2,-2 0,-6 0,0 0,0 0,-6 1,4 3,-4 0,0 0,0 0,0 0,2 0,-2 0,2 3,0 1,-2 0,4 2,0 0,2 0,0 1,2 2,6-3,-2 0,6-1,-4 1,8-6,2 3,-10-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10710 30469,'0'0,"-32"6,26 2,4 1,0-3,2 4,0-1,0 2,8-3,-4-1,14-1,-4-3,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10783 30401,'0'0,"8"34,-4-19,0-6,4 5,-3-1,-3-1,6 2,-4-6,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10812 30475,'0'0,"28"0,-18 2,2-2,-6 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10887 30486,'0'0,"28"0,-18 0,-6-2,0 2,4-7,0 5,-8 2,6-8,-4 8,2-8,-4 8,0-4,0 0,-4 3,2 1,-4-6,2 6,-8 0,8 6,0-5,0 5,-2-2,4 2,2 4,0-1,0-1,2 2,4-2,4-3,4 4,2-7,-2 0,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11128 30407,'0'0,"6"14,-2-6,0 7,0-8,0 9,0-2,4-3,-2 1,-4-6,8 6,-4-6,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11136 30516,'0'0,"-34"0,26 1,-1 2,9 1,-4-2,0 0,4 0,0 2,0-2,8 5,-4-3,7 0,-1 4,6-6,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11707 30379,'0'0,"4"36,-2-22,2 1,4 2,-4 3,0-7,4 1,-4-5,5 2,-3-3,2-6,-2 3,6-5,-6 0,0-7,0 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11669 30486,'0'0,"32"-23,-22 23,4-2,-4 2,9 0,-5 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11845 30463,'0'0,"0"29,0-25,8 4,0-4,0 0,-2-2,0 0,0-2,4 0,-4-2,-4-2,-2 0,0-2,0 0,0 0,-2 1,-2-3,-2 8,0-6,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11971 30486,'0'0,"10"30,-2-20,-8-6,8 2,-4-2,0-4,-4-4,0-2,0 2,-4-6,0 4,4-2,0-2,0 4,0-3,0 7,0-6,0 8,4-6,0 4,-2 2,6 0,-2 0,4 0,10 8,-4-8,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12195 30492,'0'0,"-30"-17,30 17,-8 0,4 0,0 6,2-3,-2 5,4-6,0 6,0-2,0-2,6 0,-2-3,8-1,-10 0,8 0,-4 0,2 0,-2-1,-1-3,-3 2,2 2,0 0,2 0,-4 6,2 0,-2 2,0 2,0 4,0 3,2-7,-4 6,8 1,-8-8,8 6,-2-5,0-3,-2 1,4-5,0 1,-4-4,2 0,4 0,-4-4,2 1,2-5,-4-1,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12364 30461,'0'0,"8"14,-4-6,2-3,0-1,2-2,1 0,-1 0,0-2,-1 0,-5-2,4-2,-4 0,2-1,-4-3,0 2,0 0,0 2,-6 2,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12524 30467,'0'0,"32"0,-24-6,-2 4,-2 0,-2-4,2 1,-4 3,0-3,0 1,-6 2,2-2,-2 2,-2 2,0 0,2 0,2 6,-4-4,4 5,0 1,2-1,2-3,0 4,6 4,2-5,4-1,-2 0,6-2,0 2,2-6,6 0,-4 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12772 30405,'0'0,"-8"-28,8 22,4 0,-4 1,6 3,0-1,2 3,0 0,2 0,2 3,-6 4,6 3,-8-3,0 5,-4 3,0 1,0 3,-2-2,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12876 30666,'0'0,"14"4,-14-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">1774 30616,'0'0,"8"32,-4-21,-4 4,0-2,0 0,0-1,0 3,0-7,-4 0,4-2,-2-4,0-8,2-2,0-2,0-3,0-1,0 1,2-2,0 2,4 4,-2-1,-2 5,2 3,0 2,2 0,-2 5,0 3,4 1,-2 6,-2-2,-2-2,2-1,0-2,-2-1,-2 1,0-16,0-1,0-1,0-2,0-2,4 1,0 4,-4 1,4-1,0 7,-4 0,6 2,-4 0,6 4,-4 5,0-1,4 1,-4 2,0 0,4-6,-2 7,2-2,-6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">1994 30646,'0'0,"-12"-11,12 11,-6 0,4 5,0 3,0-3,-2 3,4-1,0 2,0-3,0-2,0 3,4-7,-2 0,6 0,-6 0,6-4,-4-1,0-1,-4-3,4 0,0 3,-4 1,0 1,0 2,0 0,2 2,2 0,-4 4,2-2,0 3,2-1,-2 2,4 1,-2-5,8 5,-6-5,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2070 30614,'0'0,"40"24,-30-16,4-1,2 1,0 1,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2146 30597,'0'0,"-16"36,8-12,4-2,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2543 30469,'0'0,"13"15,-7-1,-2 4,2 0,0 2,0-1,3-2,-1-1,0-3,-2-3,2-6,-2 1,-2-5,0 0,-2-5,4 1,-6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2525 30561,'0'0,"27"-9,-15 6,2 3,-2 0,9 0,-3 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2701 30565,'0'0,"-2"12,8-6,0-1,2-1,2 1,-2-5,2 0,0 0,-2 0,-2-5,-4-2,0 3,-2-4,0 0,-4 4,0-1,-4 3,-4 2,2 0,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2831 30545,'0'0,"6"20,0-12,-2-4,2 0,-3 1,1-3,0-2,-4 0,0-3,-6-3,4 0,-1 2,1-2,-2-1,2 0,0 1,2 1,0 1,0 2,2-2,4 2,-3 0,3 2,4 0,4 0,-2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3017 30498,'0'0,"-38"12,30-6,2 2,2-4,2 0,0-2,2 2,0-2,2-2,6 0,0 0,2 3,0-3,0 0,-2 6,4-4,-2 3,-6 2,2-1,-6-2,0 4,0-3,-6-3,-2 4,-2-6,2 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3115 30512,'0'0,"-4"39,4-29,4-2,2-2,-2-2,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3188 30506,'0'0,"-8"32,10-23,4-2,2-2,-2-1,6-2,-4-2,4 0,-2-2,-1-5,-1 2,-4-1,-4 1,0-1,0 4,-4-2,-4 2,-1 0,-1 2,2 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3309 30498,'0'0,"6"34,-4-26,-2 1,2-2,2 0,-2-5,0 2,0-4,-2-6,0-1,0-2,4-2,-2-1,-2 2,4-2,-2 2,4 2,-4-1,6 3,-6 4,4-2,0 4,0 0,2 2,-4 2,4 4,-2 1,0-1,4 2,-2-2,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3603 30484,'0'0,"-4"-25,2 21,-4 2,-2 0,2 2,-3 0,3 0,-4 2,2 4,-4 2,6 2,2 1,-2 1,4-2,2-3,0 4,2-7,4 2,4-4,-4-2,4 0,-2 0,-2-4,0-2,1-2,-5-2,2 0,-4 4,0-2,0 4,0 1,0 3,0-4,0 8,2-2,2 1,0 3,0 2,0-2,2 0,2-1,0 2,0-3,4 0,-6-4,8 0,-6 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3657 30371,'0'0,"8"32,-4-17,4 2,0-1,0 0,0 1,0 1,8 0,-8-4,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2182 31103,'0'0,"2"-20,-4 20,-2 0,-4 0,-2 4,0 3,4-2,-2 3,4 1,-2-1,6-3,0-1,0 2,4-2,6 1,-2-1,4 3,0-2,2 1,-2 4,-2-1,-2-2,-2 3,-6 1,0-3,-8 2,-4-6,2 0,-2-2,0-2,0-4,2-2,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2239 31083,'0'0,"6"35,0-22,-2 4,2-1,1-4,1 3,-4-4,4-1,-4-1,2-2,-2-6,-2-1,0 0,-2-4,0-2,0-3,-2 1,0 2,-2-1,4-2,0 1,0 0,0 1,0 2,0 1,0 1,4 1,-2 2,6 0,-4 5,4 2,-2-3,2 3,-2 1,4-2,2 5,-2-2,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2406 31159,'0'0,"34"3,-24-3,-2 0,-4 0,2-3,-5 1,1-5,0 5,-2-5,0 5,-2-4,0 4,-3 0,3 2,-6 0,4 0,-2 0,0 2,2 4,0-4,0 7,4 0,0-2,0-1,6 2,0 0,4-1,4-2,5-1,1 0,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2590 31139,'0'0,"-34"18,34-14,0 1,0-1,6 0,-2 0,2-2,2-2,0 0,1 0,-7 0,4 0,-2-6,0 4,0 0,-2 0,0 2,-2-2,2 2,0 4,2-2,-2-2,0 2,6 0,-2 0,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">2691 31131,'0'0,"4"26,2-19,-6-1,8-2,-6 2,2-2,-2-2,0 1,-2-6,-4-1,0 0,2-2,-2-2,0 1,4-5,0 2,0 1,0 1,0 2,8-1,-6 3,6 2,2 0,10 2,-6 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3063 31020,'0'0,"0"-16,-4 16,-2 0,-2 6,2-2,-2 0,2 3,-2 1,4-2,4-2,0 2,0-2,4 0,4-2,-2 1,4 1,2 5,-6-5,0 4,2 0,-6 2,0 1,-2-3,0-5,-2 1,-6 4,2-8,-2 0,0 0,2-4,2-2,-2-1,2-3,0-1,4 1,0-2,0 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3133 30969,'0'0,"14"31,-10-17,-2-3,4 7,-4-2,1-7,3 4,-2-5,2 0,-2-4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3133 31047,'0'0,"33"-12,-23 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3275 31081,'0'0,"-14"-42,14 38,0-1,0 0,0 2,4 1,2-2,0 2,0 2,0 0,4 0,0 0,2 0,0 2,0 0,-2 0,-4 0,2 1,-2-3,0 0,-2 0,-2 0,0 0,2 0,-2 0,0 0,-2 0,0-3,0 1,0 0,0 0,0 0,0-2,0 4,0-2,0 0,0 0,-2 2,0 0,-4 0,4 0,-2 2,-2 2,4-2,-2 2,4 0,-4 1,4 0,0 2,0-1,4 2,0 0,4-5,0 3,4 1,0-3,2-2,4-2,-4 0,-2 0,1-4,3-5,-8 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3617 30965,'0'0,"-22"21,16-19,0 4,4-6,2 2,0 0,0-2,6-2,2 0,-4 2,6 0,0 4,0 2,-2 0,2 4,-4-5,-6 7,0-6,0 2,-2 0,-6-5,-2-1,0 0,0-2,2 0,2 0,4 0,0-4,2 4,0-2,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">3735 30952,'0'0,"-26"2,20 2,4-1,2-3,0 4,0-2,0 0,2-2,6 0,-2 3,6 1,-2-2,-4 4,4 2,-2-2,-2 2,-4 2,0-2,-2 1,0-3,-2-2,-4 2,0-2,0-2,-2-2,2 0,0 0,2-4,0 0,4-2,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">4151 30904,'0'0,"42"-6,5-2,27-1,11-6,15 6,-1 1,-5 3,-27-1,-19 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2">4771 30779,'0'0,"-4"29,22-23,2 3,2-1,-4 1,0 4,-8-4,-6 2,-4-1,0-3,-10 1,2 0,-6 2,4-4,0 1,4 1,2-6</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/dev"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-27T22:24:53.199"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5072 49828,'0'0,"22"9,-9 0,-1 7,0 1,0 7,0-2,0-2,-6 0,2-4,-4-5,2-1,0-6,-4 2,0-6,0-8,-2-6,0-4,0-1,0-7,0 4,0 2,4-1,4 3,-2 9,4-4,0 3,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5884 49999,'0'2503,"6020"-2503</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5010 50933,'0'0,"0"4,0 6,2 1,0 2,0 1,2 2,2 8,-4-7,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5296 51082,'0'0,"66"-17,-46 17,-1 0,-7 4,1 7,-11 1,-2-3,0 5,-4 0,-9-6,0 0,-1 0,-2-2,8-4,-6-2,6 0,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5326 51082,'0'0,"-4"55,10-35,0 0,-4 3,8 2,-2-4,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4988 51143,'0'0,"66"-12,-46 12,-4-4,5 2,-5 0,6 0,-8 2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5072 51250,'0'0,"16"-16,-6 16,-8 0,5 0,-1 0,-4 6,-2 2,0-2,0 2,0 2,0 2,-6 2,-3-2,3-1,-2-3,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,3-6,-1 4,0 2,6-4,-2 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5944 51250,'3245'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9191 51286,'0'2411</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8686 52103,'0'0,"8"48,-6-34,-2-5,8 8,-6-7,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8819 52127,'0'0,"-44"56,27-32,1-1,-4 15,10-8,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8989 52129,'0'0,"12"49,-12-32,0-1,0-1,0 1,0 1,0-2,-2-3,2 0,0-6,0 2,0-6,6-2,-2 0,2 0,0 0,0 0,2 0,2 0,-1 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11864 52151,'0'0,"0"16,0-5,4 2,-4 3,0-1,0 1,0 3,0 0,0-3,0 1,-4 0,4-7,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8831 52259,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 3,-10 2,-2 1,0 2,-2-7,7 6,-3-9,4 3,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12480 52470,'0'0,"-51"50,39-31,-2 5,2 0,6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12345 52485,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 5,2-1,-2-3,-2 1,2 0,2 0,-4-6,0 4,4-4,1-2,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12603 53506,'0'0,"0"8,0-1,0 3,0 0,0 7,0-4,0 7,0 6,0-10,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12991 53558,'0'0,"61"-10,-43 18,0-1,0 3,-8 4,-1 2,-7-2,-2 2,-2-4,-13-3,-1-1,-2-6,-2 2,2-4,1 0,7-4,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12995 53562,'0'0,"2"11,0-7,-2-2,0 4,0 2,0 0,0 8,0 0,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13005 53639,'0'0,"-2"63,2-35,6-2,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12329 53649,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 2,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12721 53649,'0'0,"-45"51,36-35,-1 4,-12 6,10-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9240 53718,'2674'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12711 53786,'0'0,"57"-10,-51 18,-2-6,-4 7,0 2,-2 1,-10 0,2 1,2 0,0-3,-3 2,5-4,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5201 54554,'0'0,"0"16,0-8,0 5,0-2,0 5,0 0,0-2,0 2,0-6,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 2,0-7,0 2,0-1,0-3,0 2,0 1,0 4,0 2,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,3 1,-3 5,0 2,0 4,2 0,2-3,-4-3,4 2,-6-11,2-2,2-4,-4 0,0-2,0-10,0-4,-2-4,0-3,2-2,-4 6,4 2,-2 7,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 0,1 4,-1 7,-2-4,6 3,-5-2,9 0,-4-7,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5882 54580,'0'2504,"6020"-2504</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10261 55446,'0'0,"8"71,-8-49,4-2,-4 2,0-9,0 4,5-9,-5 2,2-8,0-2,0-2,-2-14,0 6,0-9,0-2,0-5,-2 0,0 0,2 0,0 9,0-2,0 7,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 10,2-2,0 7,4-4,0-2,-2 0,-2 0,0-6,-2-4,-1-3,-1-5,-2-2,-2 0,0-8,0-5,0-10,0 0,0-7,0 2,0 3,0 0,0 13,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 6,0 2,0 3,2-2,0-2,6 9,-4-4,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9054 55764,'0'0,"39"-36,-19 32,4-5,4-1,0 2,-3 4,-9 4,-8 0,0 8,-8 6,0 3,-8 1,-4 2,2-4,1 0,1-9,8-5,8-2,15-2,-1-11,10-9,1-2,10-2,17-1,17-9,12-4,4 3,-21 16,-10 2,-30 14,-12 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10639 55594,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 9,0-8,2 7,2-4,2 0,-6-6,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 1,4-2,2 2,-4-2,2 5,2-4,0 3,0-2,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 0,5-2,-7 2,4-2,-2-2,0-4,-2-1,0-3,0 0,-2-7,0-3,4-4,0 0,-2 4,2 0,0-1,0 3,0 6,-4-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 3,0-4,2 5,0 2,2-2,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10893 55629,'0'0,"-16"-26,8 25,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 5,0-4,0 1,0 0,6-2,2 0,-1-4,1-2,-2 0,2 0,-2-2,-2-4,-2 2,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 8,2-8,-2 4,4 3,1-5,-3 3,-4-7,2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11129 55602,'0'0,"-31"33,19-15,0 2,0 4,2-2,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10992 55619,'0'0,"68"32,-54-22,0 0,4 1,1 0,-5 1,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9001 55709,'0'0,"-12"33,2-18,-6 0,6 1,-2 0,0-9,6 2,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-4 0,1 0,2 0,-3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55925,'0'0,"0"-2,0 10,4 0,-2 5,0-3,2 4,-2-1,-2 3,2 1,-2 2,0-3,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5877 57029,'2936'-1071</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8872 55984,'3016'1026</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4986 56014,'0'0,"58"-23,-44 23,-2 0,2 8,-4 7,-2-1,-6 3,1-3,-3 6,0-6,-5-2,-7 2,4-9,-8-3,2-2,0 0,4 0,-4 0,6-3,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5227 56026,'0'0,"4"7,0-3,-2 4,0-2,-2 2,0 6,0-2,0 8,0-4,0-1,0 0,0 1,0-7,2-1,4-4,3 2,-1-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5002 56053,'0'0,"10"52,-8-36,6 6,-8-6,8 1,-8-5,4 0,0-1,-4-6,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56155,'0'0,"56"-10,-35 8,11 2,-12 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56242,'0'0,"-35"42,27-30,0-4,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4863 56258,'0'0,"14"38,-12-24,2 2,-2 1,0-2,-2 1,4 0,0 0,-4-4,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12065 56697,'0'0,"0"8,0 1,2-1,-2 9,0-2,0-1,0 2,0 0,0-6,2 2,-2 0,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12353 57084,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,-1 6,1 0,-6 4,4 2,-2-2,2 1,2-3,4 5,-2-6,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12540 57086,'0'0,"-54"68,42-53,-2 4,6 2,-1-5,7-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8848 57210,'0'0,"8"56,-4-40,2-3,0 8,0-7,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9005 57324,'0'0,"-28"57,20-40,-6 5,6 2,-4-2,2-3,1 6,-1-6,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9290 57382,'0'0,"2"4,0 4,2 2,0 6,2-1,-2 2,-3 1,-1-3,0-1,0 1,0-6,0-3,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,5 0,-5 2,2 0,6 0,-4 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8995 57539,'0'0,"50"-31,-39 31,-5 0,1 0,-1 9,-4 1,-2 4,0 0,0-3,-4 2,-5 3,5-6,-4 1,1-1,3-4,2 1,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13235 59551,'0'0,"6"48,4-28,-4 3,2 4,-4-2,4-1,2 2,-2-5,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14753 59571,'0'0,"12"46,-4-27,0 4,11 6,-7 1,2-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16219 59591,'0'0,"0"8,4 2,0 4,4 1,0 4,0 0,0-1,3 3,-3-6,0-3,-2 0,1-8,-7-4,0-8,0 0,-7 4,-7 0,4 0,-3 2,1 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-4,6 7,0-5,2 3,4-1,2-4,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16556 59591,'0'0,"6"8,-2 4,-4 0,6 3,-4 2,0 4,2-3,-2 6,2-2,0 0,4 0,0 1,-2-6,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13674 59597,'0'0,"-12"0,12 10,0 6,4-3,4 6,-4-2,6 5,-2 2,4-8,-4 4,0-1,0-2,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17831 59830,'0'0,"-4"-57,0 38,2-9,-4 4,4 0,2 1,0 6,-4 6,4 3,0 4,0-2,0 4,6 2,2 0,2 4,6 8,-2-1,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13122 59702,'0'0,"48"-8,-39 4,1 0,-6-4,2-1,-6 3,0-2,-4 4,-4-3,-7 7,4 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 3,2 0,2 4,0 4,2-6,10 4,0 0,4-5,9-1,-4 1,-2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14435 59647,'0'0,"-16"0,10 0,0 0,-2 0,4 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0-1,0 2,6 0,0-4,6 6,-4-2,2-1,2 2,-8 1,-2 2,-2-2,0 4,0-5,-2-1,-2-4,-4 0,2-2,-2 0,2-4,4-2,0-1,2 3,0 0,0 0,2 0,4 4,2 0,2-4,4 2,2 0,0-2,-2 0,0 2,-3 0,2 0,-1 0,-8-1,4-2,-4-1,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,5 4,-3 2,5 0,-1-2,0 1,6-2,0 1,0 2,2 0,10-4,-3 4,10-4,7-4,0 5,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14767 59676,'0'0,"49"-5,-31 5,4 0,0 1,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15764 59671,'0'0,"0"11,0 1,0-2,4 4,4 0,0-2,0 2,-4-3,2-2,-2-5,-2 0,-2-8,0-5,0 1,2-3,-2-1,0 2,2 0,-2 1,2 4,-2-1,2 2,0 2,-2 0,3 2,1 4,-2 2,2 7,0-6,4 5,-8 2,3-6,1-1,-4-5,2 0,0-9,2-3,-4-2,2-4,2 5,-2-2,6 3,-8 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 3,0-2,0 1,4 0,0 5,-4-4,5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13551 59686,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 1,-2-2,0 1,-6 2,4 0,0 0,-6-2,0 1,0-1,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-1,8 3,-3-2,13 0,-5-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14669 59678,'0'0,"-33"16,27-8,4 0,-2 2,2-2,2 0,0 0,6 0,8-2,9-6,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15078 59694,'0'0,"-18"32,24-28,6 0,-8-4,8 0,-2 0,-2 0,-6-8,4 0,-6 0,0-2,0 2,0 0,-8 4,-4 2,3 2,-8 0,5 6,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15216 59702,'41'52,"-41"-54,-2 0,-2-8,2 0,2 2,-2 1,2-6,0 7,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 5,2-6,-4 7,4 0,-6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14938 59680,'0'0,"20"50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13396 59718,'0'0,"-34"-38,28 38,0 0,2 4,-2 6,6 2,0 2,0 0,0-2,0 0,8-5,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 3,2-4,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,10 2,-4 0,6-3,6 1,-3-4,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18848 59686,'0'0,"2"36,6-16,0 3,0 2,0-2,8 7,-7-5,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13833 59688,'0'0,"16"58,-4-46,-8-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13990 59688,'0'0,"-52"6,46 0,-4 2,2 1,3 0,5 3,0 0,0-2,17 3,-1-4,12-1,0-6,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11704 60107,'0'0,"67"-64,-25 32,25-7,33-13,19-4,12 6,6 5,-6 14,-8 11,-19 4,-31 8,-23 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17692 59718,'0'0,"-2"-20,0 18,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 4,2-2,0 0,0 6,6-6,10 1,-4-3,4 3,-2-9,-1 0,-1 0,-4-9,-8 3,0-3,0-3,-4 2,-8-2,4 6,-1 3,1 1,0 2,0 0,6 4,-2 1,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15216 59702,'0'0,"31"40,-23-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16357 59728,'0'0,"28"41,-20-37,4 3,1-5,1-2,-2 0,2 0,-4-9,-2 1,-4 1,-2-5,-2-6,0 5,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19684 59702,'0'0,"12"48,-4-33,0 10,4-9,2 4,-2-1,8 0,-3-7,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13658 59724,'0'0,"50"-11,-34 11,0 0,11 0,-5 0,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18437 59726,'0'0,"0"54,0-38,8-1,-4-2,4 1,-3-3,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 3,4-4,2 2,0-1,-2 4,4 3,-2 4,2-4,0 2,2 2,6-2,2 2,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16668 59718,'0'0,"14"62,-6-48,5-2,1 0,-4-4,4-2,1-4,-3-2,0 0,-4-8,-4-5,-2 0,-2 1,0-3,-2 0,-4 11,0 0,-2 4,4 0,0 0,4 4,0 0,6 1,2 1,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16058 59724,'0'0,"-39"6,39 2,0 2,0 0,4-3,6 1,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,1 3,-5-3,0 2,-15 0,5 2,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17821 59724,'0'0,"46"0,-17 0,-5 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16953 59775,'0'0,"4"-25,-12 25,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2 0,0-2,8 7,4 1,-2 1,2 1,-2 2,4 0,-10 0,4 0,-4 2,-4-2,0-2,0-2,0 0,-8-8,4 2,-4-2,-2 0,0 0,2-2,0-4,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18584 59824,'0'0,"55"-28,-47 22,-4-4,2 1,-6 3,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-3 3,3 1,4-1,0 2,2-2,2 7,0-4,6-1,4 2,5-1,1-4,12-1,-4 0,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18762 59780,'0'0,"-29"12,25-6,2 3,2-2,0 3,0-2,6 5,-2-6,8 1,1-4,3 0,0-4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19990 59838,'0'0,"0"13,0-6,0-1,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-1,-2-6,2 5,0 2,0 2,2 4,4 4,2 2,2 0,4 0,6 2,15 6,-3 5,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19070 59792,'0'0,"-45"0,38 4,3 4,2-4,2 4,0-4,4 4,5-4,1-4,-2 0,-1 0,1 0,0 0,-4-2,0-2,0 2,-2 2,0 0,-2 0,4 0,0 6,2 0,2-2,0 5,2-4,10 3,-6 0,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18872 59796,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19164 59798,'0'0,"14"38,-8-27,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 7,0 0,0-1,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 1,2 7,4-4,0-1,-2 0,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19396 59852,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 7,0-2,-1 6,3 0,4-1,-10-2,0 0,-2-5,-2-2,0-6,0-3,-2-3,0 0,0-3,2-7,0-6,0 0,0-1,4-4,1 4,1 7,-2-4,0 10,-2-1,1 1,3 1,-4-1,8-6,2-2,-2 4,0-5,-4 2,-2 5,-4 2,0 4,-2-2,-2 2,2 0,0 0,0 0,0 0,2 4,0 0,0 2,0 3,6-4,2 5,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 3,0-4,4 1,-6-1,4 4,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19881 59814,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 1,0 2,2 1,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11688 60037,'0'0,"4"30,-4-19,0 3,0-3,0 3,-8-1,0 3,2-6,0 1,2-5,4 2,0-6,6-2,2-2,2-4,-2 0,4 4,-1-4,8 6,-3 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16598 60059,'0'0,"16"52,-12-33,2 5,2-9,-4 3,6-2,-4-1,2 0,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 1,0 5,0-4,0 2,2 2,6 0,-2 0,2 4,3-4,1 4,-4 0,2 8,-2 2,0 4,-1-3,-3 3,-2-1,-2-3,0-1,0-3,-6-6,-1 0,-1 0,0 0,0-8,0 3,2 1,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,-1 0,-2 0,2-2,0 1,0-3,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-3 4,7 0,-4-2,4 6,-2 0,4-2,0 1,8 1,2 1,3-5,7-2,12 2,0-4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8726 60140,'0'323</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8217 60148,'0'293</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17196 60207,'0'0,"-4"26,6-18,2 0,0-2,-1-1,3-1,-2-4,2 0,-4-2,-2-4,0-1,0-1,0 0,0-1,0 1,0 3,0 1,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4-1,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-1,0 3,0 0,0 2,0 4,2 0,-2 2,0 0,-2 4,6 2,-6 2,2 4,4-3,0 1,0 3,0-3,12-4,-6 1,7-3,1 0,-2-4,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8365 60247,'0'0,"0"65,2-51,-2-2,4 3,-2-4,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 2,0-1,0-4,-2 4,0-3,0-4,-2 1,4 3,-2 1,2 1,-4 1,4 3,0-1,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 5,-6-3,8 3,-6 3,4-5,-2 3,2 0,-4-4,4-2,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-7,-4 0,0-1,0-1,0-3,0-1,0 6,0 1,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,0 0,-2 6,2 6,2 3,-8 0,4 1,0-1,2 1,-4-6,2 6,2-2,2 0,-1-2,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17065 60193,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0-1,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-4-6,-2 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17655 60290,'0'0,"-2"-10,2 10,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10832 60445,'0'0,"-59"2,51 2,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 0,5 3,0 3,4-2,-4 5,0 3,-3-4,-1 7,-6-6,-2 0,0-4,-2-2,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 0,2-2,2 2,3 4,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6736 60479,'0'0,"-17"0,5 3,6 10,-4-1,0 1,4 4,-4-3,8 3,-2-6,4-1,4 2,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,2-2,-6 1,-2-4,-4 5,-6-3,-2 4,2 3,-3 0,-1 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,0 0,10 0,-9 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9945 60497,'0'0,"-14"21,14-19,0 2,2-4,4 0,0 0,-4 0,1 0,2-4,-5 2,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 2,0-3,6 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11070 60518,'0'0,"59"-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7646 60539,'0'0,"55"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11114 60566,'0'0,"53"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7640 60625,'0'0,"49"-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6947 60625,'0'0,"8"45,-8-31,0 1,0-4,0-1,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 1,0-4,2 5,-2 0,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 7,1-5,1-1,-2-3,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-1,-8-3,4-1,0 5,2 3,-4 1,4 2,-4 4,-2 0,2 2,4 6,-4-1,4 3,-6-2,4 5,2-7,2 3,-4-1,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8055 60625,'982'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9939 60666,'0'0,"24"27,-24-17,0 5,-4 1,-5 4,-2-4,-1 6,-2-9,0 2,0-5,2-6,-4-4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7197 60676,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0-1,0-1,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 2,-4 4,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7414 60682,'0'0,"-45"32,35-22,8 6,0 0,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7323 60701,'0'0,"58"17,-47-9,1-2,4 0,-2 4,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8599 60830,'0'0,"-31"-10,17 10,0 0,-2 4,2 0,0 2,-3-4,7 3,0 1,8 0,0-2,2 4,0-1,6-1,4-1,7 6,-1-1,4-2,2 6,-2-3,-4 6,-3-5,-9 3,2-3,-6-2,0 3,-6-4,-5-1,3-4,-2 0,-6-4,4 0,-2 0,2-4,-2-2,2 0,4 1,-1 1,5 2,-2-3,4 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/dev"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-27T22:25:08.783"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71225"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34054,'0'0,"-2"-8,2 11,0 10,2-3,4 4,0-3,4 3,-4-2,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-5,-5 3,-2 0,0 3,0 2,0 3,0 6,-2-6,0 6,2 6,0 8,2-2,2 8,2-3,2 7,-4-1,4 2,-4 0,-4 2,0-2,0-7,0-1,-2-1,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-3,9-1,3 6,0-4,16-5,-4 4,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3110 34177,'0'764,"807"-764</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5463 34455,'0'0,"20"24,-12-16,-4-2,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9616 34517,'0'0,"42"-38,-26 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9343 34721,'0'0,"58"-30,-36 21,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5752 34682,'0'0,"20"9,-8-3,-2 0,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9074 34856,'0'0,"42"-27,-26 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6080 34834,'0'0,"41"14,-33-8,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8774 34947,'0'0,"40"-13,-30 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6368 34934,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4164 34943,'0'0,"-12"23,4-7,0 0,-2 6,-4-5,2 6,0-2,-1 3,5-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4021 34974,'0'0,"22"-16,-12 18,2 6,-2 6,5 2,-1-4,-2 8,0-2,2 2,-4-5,-2-1,-4-4,4-4,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6773 35028,'0'0,"46"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8455 35046,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7075 35062,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8145 35120,'0'0,"51"-1,-41-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7396 35120,'0'0,"46"0,-40 4,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7755 35140,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7813 35441,'0'0,"14"40,-12-32,2-2,0-4,-2 4,0-4,-2-10,0 6,0-12,0 6,-2-7,0 2,-2-1,2-1,0 1,0-2,-2 1,4-1,-2 5,2 1,0 3,0 3,0 2,2 4,4 6,-2-1,8 8,-4-5,6 0,-4 3,6-5,0 0,-2-3,4-3,-5 0,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7815 35363,'0'0,"50"58,-16-8,8 14,5 10,3 6,-2-9,3-5,2-4,-19-15,-4-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10730 36042,'0'0,"-18"45,16-33,2-3,0-1,0-2,0 0,2-12,2 0,-2 0,-2-5,0-3,4-1,-2 1,-2 0,4-1,-4 4,0 1,0 8,0 4,0 8,2-1,0 4,0 1,4-2,0-2,2 3,0-3,2-2,2-3,1-5,1 0,0 0,2-9,-4-1,0-7,0 7,-2-6,-4 4,-4-4,-2 0,0 0,0 4,-8 4,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8461 36126,'0'0,"0"44,0-34,0 4,0-6,0 4,0-8,0 2,0-14,2-2,-2-2,0-2,0-4,6 3,-6-4,2 1,-2 1,0 2,2 6,-2 0,0 9,6 0,-6 5,4 6,0 6,4-3,0 1,0 2,4-4,-6-3,4 0,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-3,-8-6,2 3,2 3,-2-1,-2 3,0 2,4 4,0 1,-2 2,2 2,-2 2,0 2,4 1,-4 4,6 4,-2-1,4-1,-2 1,4 1,0-1,0-5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8967 36060,'0'0,"-29"37,23-20,-2 4,4-2,-4 9,4-8,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10424 36060,'0'0,"0"37,0-27,0-1,4 1,2-3,-4-1,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10027 36081,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10283 36074,'0'0,"46"-10,-30 10,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10546 36065,'0'0,"-28"34,28-26,0-1,4 1,4-4,2-2,-2 0,6-2,-4 0,4-2,-3-8,3 2,-6-3,-6 3,-2-2,0 3,-2 0,-6 4,-6 3,5 0,-3 0,4 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9586 36107,'0'0,"46"-26,-34 19,2 3,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8749 36069,'0'0,"-8"51,4-32,4-2,-4 3,0-2,4-4,0 0,-2-4,2-7,0 1,2-9,2-5,-2-2,0-2,-2-2,4 4,-4-4,0 5,0-2,0 1,0 4,0-3,0 5,0 0,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 1,1 3,0-3,6 5,-4-3,4 3,-6-7,2 0,0 3,-2-2,-2-5,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10315 36070,'0'0,"0"44,4-30,0-5,-4-1,6-1,0-1,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9323 36093,'0'0,"34"-6,-22 10,1 0,-1 6,-3-3,3 3,-2 7,-6-2,0 1,-2 3,-2-4,0-1,-2 2,-6-3,-2-7,0 4,4-8,1 2,1-2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10212 36089,'0'0,"-37"21,33-15,0 6,2-1,2-3,0-1,2 1,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9754 36105,'0'0,"37"-8,-33 6,12 0,-8 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9553 36093,'0'0,"-8"52,8-35,0 1,0 0,0 0,4-4,0-3,4-5,-4-2,9-4,-5 0,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8870 36097,'0'0,"48"31,-38-20,0-3,2-3,7 3,-4-6,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9902 36097,'0'0,"0"33,0-16,0-10,0 5,0 0,0-3,4 0,-4-5,8 2,-4-4,0-2,4 0,-2 0,-2 0,2 0,-4-2,6-2,-2 0,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10023 36110,'0'0,"0"44,0-32,2-4,0-2,0 1,4-3,-2-4,0 0,-4 0,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9742 36116,'0'0,"-8"50,8-38,0-1,4-2,-4 1,4-2,-2 0,-2-6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10051 36128,'0'0,"42"-4,-36 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9313 36135,'0'0,"4"35,0-16,-4-6,4 3,0-8,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9582 36168,'0'0,"50"-19,-34 17,-10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8759 36178,'0'0,"45"-16,-35 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9770 36182,'0'0,"47"-10,-37 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10065 36196,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9590 36251,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6785 36801,'0'0,"16"-9,-12 7,4-2,-2 4,2 0,-6 0,3 6,-1-3,0 3,-4-4,0 5,0 1,-4-4,0 0,-1 4,3-8,2 3,-4-3,4 2,4-2,-2 0,7 4,-3-2,0 4,0 2,2 1,0-1,-2 1,2 0,-6 1,-2-4,0 1,0-3,0 3,-8-7,0 0,4 6,-8-6,6 0,-4 0,-1 0,5 0,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4186 36868,'0'0,"-8"0,4 6,0 6,-2 2,0 8,-2 12,2 10,0 0,6-3,0-14,8-4,0-6,0-7,10 8,-2-2,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5325 36876,'0'0,"-8"0,0 3,3 3,-1-3,0 5,2 0,0-2,2 5,2-6,0 1,0 0,2 0,6 2,0 0,3-2,3 2,-2 2,0 2,-2 1,-2 2,-2 1,-6-4,0-2,-6 5,0-7,2 1,-8-7,2 4,-2-6,0 0,1 0,3-2,0-4,4 1,0-5,2 2,2-3,0 3,2-4,2 4,4-4,2 1,-4 2,5 1,-3 4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6469 36904,'0'0,"30"-16,-18 16,-2 0,1 8,3-2,-6 0,0 3,-2-4,-2 7,-4-8,0 8,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4755 36902,'0'0,"12"38,-4-24,2 6,2 0,-2 4,2-2,0 2,0 1,-4-2,0 1,-4-4,-4 10,-12-12,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6475 36904,'0'0,"0"18,2-6,0-6,-2 6,8 0,-8 0,6-2,-4 0,-2 0,0-3,2 0,-2-5,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6650 36921,'0'0,"6"31,-6-21,0-2,0 2,0 0,0 0,6-4,-4-1,2 2,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,3-4,-7 4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5591 36990,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4262 37024,'0'0,"0"18,2-10,-1 2,1 1,-2-1,2 0,2 1,-4-5,0 0,6-2,-4-4,-2-8,0 0,0 0,0 1,0-1,-2-5,2 1,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 1,-4 3,4-7,-4 1,0-2,0-4,-2-2,0-8,0 0,0-5,0 3,0-7,0 7,0 2,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 2,-2 0,8 3,-6 1,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4466 37062,'0'0,"-4"34,4-20,0-6,0 3,0-5,4-3,-4-3,2-3,2-5,-4-1,0-5,0 4,0-5,0-2,0 7,0-4,0 6,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,1 1,-1 6,-2-4,4 0,0 6,2-1,0-1,-2-1,2 5,-4-7,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4683 37036,'0'0,"-36"33,28-17,2-7,0 7,6-5,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4611 37040,'0'0,"34"31,-20-23,-4 2,4 3,-8-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6094 37040,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5645 37052,'0'0,"26"-4,-16 4,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4488 37094,'0'0,"39"-3,-27 3,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6364 37148,'822'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6380 37322,'0'0,"-16"19,12-13,-4-1,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6528 37347,'0'0,"-9"-4,7 8,-2-2,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-5,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6953 37333,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6726 37337,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6409 37337,'0'0,"10"27,-8-13,2-2,-2 1,0-1,0-2,4 2,-2-2,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7009 37341,'0'0,"4"33,-2-21,2-3,-2 1,0 0,2-2,2 0,-2-3,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6733 37364,'0'0,"4"26,-4-21,0 3,8 0,-4-4,0 0,-2 4,4-4,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6568 37386,'0'0,"-20"17,20-11,0 4,0-4,2 0,4 0,2 0,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-2,-4-2,2 2,-4 0,0 0,-6 1,0 1,-2 0,-2 4,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6777 37388,'0'0,"32"0,-26 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6795 37453,'0'0,"34"0,-21 0,-7 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7031 37457,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/dev"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:01:07.235"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52694,'0'0,"16"32,0-15,-2 15,4-1,-2 7,2 18,0 20,-2-14,-8 3,-4-8,-4-16,-2 3,-10 5,-6-2,-22 5,12-11,-2-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52764,'0'0,"0"7,-6 5,2 1,-4 0,-2 2,-2 3,10-4,-6 2,4-3,2-2,2-7,0 0,0 1,6-5,-4-5,6-3,0-1,0-6,-2 5,2-6,-2-4,-2 3,6-1,-4-2,0 2,4 1,-10 5,6 1,-4 4,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 3,0 1,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 4,-2-4,-4-2,4 2,-6 2,-2-1,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30751 52751,'0'684</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28247 52925,'0'0,"-8"32,14-23,0-3,0 0,0 0,0-3,4-3,-2 0,2 0,1 0,-5-9,0-1,0 1,-4 1,0 2,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 2,2 5,0-5,6-1,6 0,-2-3,5-4,-5 0,-4 0,4 0,-4-7,-6 0,0-5,0-1,0 5,0-2,-8 4,0 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30420 53020,'0'0,"0"-26,0 19,0 0,2 3,-2 0,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 1,6 2,0 0,0 0,0-1,0-6,6 3,0-2,6-1,-2-5,0 0,2 0,-4 0,0-11,-2 3,0-3,-6 0,0-7,0 9,0-4,-6 0,-2 1,-2 5,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 5,4 1,-4 0,4 4,2-7,0 5,2-6,10 1,-4-3,4-5,-2-2,0 0,-2 0,2-7,-6-1,2-3,-6-6,0 7,0-5,0 2,-6 5,-2 1,-2 1,2 6,-2 0,0 0,2 10,2-1,4 1,-2 2,4-4,0 2,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32807 52955,'0'0,"68"-20,-48 20,-2 5,1 0,-11 3,-2 2,-6 1,0 2,-10 0,-2-1,-3 1,-1-4,2-3,6-2,2-2,2 5,0-7,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 8,-2-1,-4-4,-2 6,0-5,-2 0,-12 2,-2-3,0-4,-5-3,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32510 52959,'0'0,"-14"-10,10 10,2 8,-4 3,2-1,2-1,0 0,2-1,0 4,0-3,8-5,2-3,2-1,0 0,0 0,-2-10,-2 2,-4-2,0 2,-4-4,0 2,0 4,-6-3,-2 7,-2-4,2 4,-2 2,2 0,2 0,-2 0,6 0,-4 8,4-4,2 9,0-7,0 3,10-2,-2 1,6 0,-4-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-6,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32799 52987,'0'0,"12"82,-10-60,6 5,-2-3,-2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27625 53079,'0'0,"-4"71,4-47,0-1,0-2,0 0,0-6,0-4,2-5,4 1,-4-7,2-7,-2-7,0-4,2-7,-2-1,0-4,0-3,-2 1,4 4,-2 7,-2 4,0 4,0 5,4 4,-4 2,4 0,0 2,0 0,3 4,-1 10,6 6,2 1,-2 7,8-1,-2-1,4 1,4-2,-8 1,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27673 53190,'0'0,"69"-34,-43 34,0-4,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30936 53160,'0'0,"-2"-4,2 8,2 2,8 8,-2 5,2 0,-2 4,6-3,-6-1,0-1,-2-6,-6-4,2 2,4-6,-4-4,0 0,2-8,-4-6,4 0,-2-2,0-7,4 7,-6-4,4 4,-2 6,0-1,4 7,2 0,0 4,0 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31615 53254,'0'0,"0"-13,0 19,0 8,0 5,0-1,-4 2,4 6,-2-1,2 1,0-8,0 3,0-10,2 0,4-9,-4-2,0-2,4-9,-6-2,2-6,-2 1,2-6,-2-3,0 1,0-2,0 5,0 8,0 4,0 7,0 0,-2 8,2 6,0 4,0 5,0 2,2 4,6-3,-2-1,0-7,0 2,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-2,-2-7,2 2,-2-4,-2 5,2-1,0 7,-6 4,0 6,2 4,2 6,-2 8,0 0,4 5,-2 1,-2 1,6 0,-8 2,2-3,2 1,0-4,-2 2,0-7,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30464 53379,'0'0,"0"-53,0 45,0 2,0 0,-10 6,0 0,-6 0,2 4,2 6,-2 9,0-6,8 12,0-3,6 1,0 0,4-6,6 1,8-4,2-8,8-4,-2-2,2 0,0-14,-4 6,-6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30667 53445,'0'0,"14"15,-10-1,-2 0,2 3,4-1,-4-4,6 0,-6-4,2-2,2-1,0-5,-4 0,0 0,2-11,2-1,-6-3,4-2,0-4,-2 5,4 0,-2 5,-4 1,3 7,-3-3,0 6,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54264,'0'0,"2"13,-2 0,4 4,0-1,2 14,-2-8,2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27238 54275,'0'0,"12"50,-8-32,-2 3,0 1,0-2,2 2,-2-5,0 1,4-2,0-4,0-6,4-1,-2-3,2-2,0 0,0-2,2-3,-2 1,0 0,-2-2,0 2,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26995 54420,'0'0,"0"-3,0 6,0 3,0 2,2 5,0 1,0 2,2 0,-2 1,2-4,0-4,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-1,0 3,0 0,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-2-2,2-1,0-1,-4 0,-2 0,-4-1,-2-5,-2-1,0-1,0-4,-2 1,-4-2,-2-2,2 3,-2 3,6-2,-4 5,4 4,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54504,'0'0,"54"-21,-34 11,8-4,0 0,-8 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54610,'0'0,"10"-10,0 9,2-7,-2 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 4,0-1,-2 0,2-2,-2 1,6-3,-8 0,6 0,-2-4,2 2,2-3,0-3,6-2,4 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-2,2-4,-6 1,2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30156 55713,'0'0,"14"49,-12-31,-1-4,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30352 55899,'0'0,"20"45,-20-31,0 0,0 1,2-4,2 0,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30138 55966,'0'0,"58"-42,-46 40,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30190 56087,'0'0,"6"-11,0 9,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 6,0 1,-2-2,0 7,-4 0,-2 2,-2-4,0 0,8-3,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-4 0,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32913 56072,'0'0,"8"-2,-7 10,1 1,0 4,2 1,-2 2,2 9,-2-3,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33466 56168,'0'0,"6"59,-6-36,2-1,0-1,0-2,-2 0,6-4,-4-4,6-5,-2-4,2 4,2-6,2 0,0 0,0 0,2-6,-4 6,-2 0,4 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32715 56170,'0'0,"8"0,-6 0,10 0,-4 0,2 0,0 0,10 0,-8 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33194 56270,'0'0,"-2"12,2-1,0 0,4 4,-4-1,4-1,0 0,0-5,2 1,0-3,2-4,-2-2,2 0,0-6,-4-7,0-1,-4 0,2 0,-2-1,0 8,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 1,2-2,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-1,-4 0,0-2,-4 5,2 2,0 0,0 2,-2 0,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32911 56323,'0'0,"51"-15,-33 15,-4-2,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32934 56489,'0'0,"50"-24,-36 18,-4 6,0 0,-4 0,-4 0,-2 6,0 8,-8-6,-2 6,-4 3,0-4,4 0,0-5,4 0,6 0,4-8,6 0,2 0,0 0,4 0,0 0,-2 0,14 0,-6 0,-6-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32823 58481,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 4,0-2,-6-2,2 3,0-6,2 1,2-4,0-2,2 0,6 0,2-2,0 0,-2-2,5 4,1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31985 58481,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 4,4-2,-4 6,3 3,-5-1,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32652 58545,'0'0,"8"-1,-4 6,-4 3,0 7,0-1,0 4,0 1,0-2,0 2,2 0,2-6,-1 0,1-3,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,4 2,-4-4,4 4,-2-4,2-1,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32345 58676,'0'0,"0"2,0 7,2 3,-2 5,0-1,0 0,6 5,-2-10,4 4,-2-7,6-6,-4 2,2-4,0-4,-6-4,0-5,2 1,-6 1,0-2,0 1,0 5,-6 2,4 5,0 0,-2 0,4 8,4 0,4 0,0 5,2-5,2-5,1 5,3-6,0-2,-6 0,4 0,-6-10,0 3,-8-10,0 1,0 0,-8-3,-2 0,-2 4,6 3,-2 1,2 5,0 3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30476 59238,'0'0,"-6"0,12-4,4-4,2 2,6-4,6-4,8-3,0 2,1-2,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 1,0 1,-4-2,-2-2,4-2,2-4,0-3,12-5,4-9,2-7,6-4,5-5,3-3,14-10,10-7,18-10,11-2,3 3,6 8,-10 5,3 2,-15 5,-17 8,-17 11,-16 5,-10 3,-8 5,-4-5,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31981 58724,'0'0,"47"-23,-31 17,7 2,-1 0,0-2,4 6,-2-3,-6 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32111 58823,'0'0,"0"-18,-4 18,0 0,0 4,-4 4,0-2,2 2,-2 4,4-1,0-2,4 2,0-3,6-4,2 0,2-4,4 0,-2-2,2-8,-2-1,-4 0,-4 1,-2-5,-2 7,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32143 58926,'0'0,"-20"24,12-15,2 5,4-2,-4 2,4-6,2 5,0-5,8-2,0-3,4-3,4 0,0 0,0-9,-6-3,-2-5,0 1,-8 0,0 1,0 2,-4 2,-4 5,-2 2,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30438 59179,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 3,-4-4,2 5,-2-3,0-1,6-3,-4 0,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-2 4,-2 2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:04:22.690"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">120 25 5721,'0'0'14867,"-12"-5"-14315,-37-14-92,47 19-426,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 1,-2 1-1,1 1-6,0-1 1,0 1 0,0 0 0,0 0 0,1-1 0,0 1-1,-2 7 1,2-7-49,0 1-1,1 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,1 0 0,0 0 1,0 0-1,0 0 0,3 8 1,-2-10-10,-1-1 0,1 0 1,-1 1-1,1-1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,0-1-1,-1 1 0,4-1 1,10 1-313,0-1 0,0 0 1,24-5-1,16-9-5445,-35 6-4478</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:04:22.063"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 314 3896,'0'0'16460,"82"-21"-16260,-52 17-120,6 2-80,3 0-152,16 2-1344,-5 0-1369,-10 0-5033</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1675.94">90 33 10442,'0'0'6993,"-2"28"-6937,9-16-56,-1-1-72,1 3-776,-1 6-696,0-4-585,-1-1-2168</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1134.63">0 25 6025,'0'0'12827,"37"-22"-12747,-22 20-64,4 2-8,5 0 8,4 0-16,2 0-561,8 0-759,-8 0-1264,-6 0-2866</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-554.1">67 175 9818,'0'0'6129,"-7"0"-6185,12 0-544,5 0 600,5 0 280,5 0 216,1 0-208,5-2-136,0-1-152,1 1-184,3 0-1128,-6 0-1225,-7 2-1984</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9213.62">376 147 12738,'0'0'4630,"2"4"-4572,0 0-39,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,5 2-1,-7-4-70,0 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 1,0-1-1,2-1 1,-1 1 77,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-4 0,0 1 620,0 22-599,0-11-44,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,6 7 0,-2-3 2,-1 1 0,-1 0-1,1 0 1,6 17 0,-10-21-17,4 12-59,0-1 0,1 0-1,1-1 1,10 16-1,-19-45 3070,13-27-2413,-9 36-804,-1 1 0,1-1 0,1 0 0,-1 1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 1 0,-1 0 0,9-1 1,16-2-4949</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:07:27.952"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 32 7801,'0'0'15612,"-4"-3"-15404,4 12-200,0 4-8,0 2 0,0 7 0,0 2-833,4 4-711,6 0-520,4 3-33,-3-6-767,3-4-3426</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="920.43">126 38 6329,'0'0'8587,"0"-7"-7064,2 43-1368,13 67 0,-7-53-385,-6-37-219,0 1 0,1-1 0,0 1-1,1-1 1,1 0 0,0 0 0,1-1 0,9 16 0,-15-28 427,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,3-11 6,-3-22 720,-1 29-652,-7-79 3067,7 82-3101,0 1-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,2 1 0,21-2 117,-19 2-97,0-1-54,-1 0 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,2 5 0,0-2-122,0 0 0,-1 1 0,0 0 0,-1-1 0,0 1 1,0 0-1,0 1 0,0-1 0,-1 0 0,0 8 0,-1-14 150,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,-2-1 54,1 1 0,-1-1 0,0 1 0,1-1-1,-1 0 1,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,-6-4 0,7 4-164,1 1-85,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,1 0 0,-1 0-1,0-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1604.52">524 384 4881,'0'0'12047,"-8"-19"-10861,-14-34 234,-29-51 1,43 89-1239,1 0 0,0 0 0,1-1 0,0 0 0,2 0 0,-1 0 0,2-1 0,1 1 0,0-1 0,0-21 0,2 37-180,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,29 1-212,-27-1 107,3 1-137,-1-1 0,0 2-1,0-1 1,0 1 0,0-1-1,-1 2 1,1-1 0,0 0-1,-1 1 1,0 0 0,7 5-1,43 44-4400,-40-37 1874,15 16-7495</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1843.88">349 270 1824,'0'0'18140,"60"-22"-17108,-43 19-624,4 0-248,7 3-160,3 0-512,22 0-1376,-5 0-2561,-2 0-6978</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T19:07:33.093"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 13338,'0'0'4929,"56"13"-4777,-4-13-40,11 0-32,10 0-72,28 6 8,-6-6-16,-1 6-1144,21-6-976,-42 0-1921,-3 0-4993</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1691,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0B8D50-96EE-48BC-A599-875E9FF5301B}">
   <dimension ref="B4:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A2" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -1776,14 +2850,14 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f>38.4*3</f>
-        <v>115.19999999999999</v>
+        <f>38.4*3 + 6.31*3</f>
+        <v>134.13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -1807,10 +2881,10 @@
       </c>
       <c r="C19" s="2">
         <f>C16/(2*C13*C18)</f>
-        <v>1929.8065047344617</v>
+        <v>2246.9179381947338</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -1977,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A6D2D-AB64-4CB7-950D-CBC4190FB579}">
-  <dimension ref="B4:F30"/>
+  <dimension ref="B4:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,20 +3062,26 @@
     <col min="4" max="5" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -2011,177 +3091,402 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2">
+        <f>50/12</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="2">
+        <f>(6.31*2)*3</f>
+        <v>37.86</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
         <f>0.5*Torsion!C13*Torsion!C14*Torsion!C15^2+0.5*Torsion!C13*Torsion!C15*Torsion!C14^2</f>
         <v>10.445146553088</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
+        <f>D10</f>
+        <v>10.445146553088</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="2">
+        <f>D10</f>
+        <v>10.445146553088</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <f>(1/4)*D8*D9</f>
+        <v>175</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="2">
+        <f>(1/8)*P8*P9^2</f>
+        <v>102.08333333333334</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" s="2">
+        <f>AE8*AE9</f>
+        <v>530.04</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
-        <f>(1/4)*D8*D9</f>
-        <v>131.25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2">
         <f>Torsion!C15/2</f>
         <v>2.1619999999999999</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="2">
+        <f>D12</f>
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>D12</f>
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <f>D10/D12</f>
+        <v>4.8312426239999997</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2">
+        <f>P10/P12</f>
+        <v>4.8312426239999997</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>AE10/AE12</f>
+        <v>4.8312426239999997</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
-        <f>D11/D13</f>
-        <v>4.8312426239999997</v>
+        <f>ABS(D11)/D13</f>
+        <v>36.222565004427317</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2">
+        <f>ABS(P11)/P13</f>
+        <v>21.129829585915939</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>ABS(AE11)/AE13</f>
+        <v>109.71090488540945</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2">
-        <f>ABS(D12)/D14</f>
-        <v>27.166923753320489</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X26" s="11"/>
+      <c r="AD26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
+      <c r="X30" s="11"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="X31" s="11"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="X32" s="11"/>
+    </row>
+    <row r="33" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X34" s="11"/>
+    </row>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X35" s="11"/>
+    </row>
+    <row r="36" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P11" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC663C3-7309-480C-8450-91D7F4817F10}">
-  <dimension ref="B4:F21"/>
+  <dimension ref="B4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>63606.25</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -2191,89 +3496,278 @@
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>31336.97</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <f>SQRT((Bending!D15)^2+3*(Torsion!C19)^2)</f>
-        <v>3342.6333150515534</v>
+        <f>SQRT((Bending!D14)^2+3*(Torsion!C19)^2)</f>
+        <v>3891.9445958491392</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6">
         <f>38*10^3</f>
         <v>38000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="2">
+        <f>Q6/D7</f>
+        <v>8.0517513104944243</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7">
         <f>D8/D7</f>
-        <v>11.368282554024004</v>
+        <v>9.7637566682033441</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="2">
+        <f>Q5/D7</f>
+        <v>16.343051252023919</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <f>SQRT((Bending!P14)^2+3*(Torsion!C19)^2)</f>
+        <v>3891.8333896304134</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6">
+        <f>38*10^3</f>
+        <v>38000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="2">
+        <f>Q6/D14</f>
+        <v>8.0519813832461899</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <f>D15/D14</f>
+        <v>9.7640356602235379</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="2">
+        <f>Q5/D14</f>
+        <v>16.343518242449825</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="S20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <f>SQRT((Bending!AE14)^2+3*(Torsion!C19)^2)</f>
+        <v>3893.3221219922962</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6">
+        <f>38*10^3</f>
+        <v>38000</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="2">
+        <f>Q6/D21</f>
+        <v>8.0489024586448039</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7">
+        <f>D22/D21</f>
+        <v>9.7603020786152133</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="2">
+        <f>Q5/D21</f>
+        <v>16.337268791787338</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
